--- a/GameModules/ZHUSHENKONGJIAN/Localization_ZHUSHENKONGJIAN.xlsx
+++ b/GameModules/ZHUSHENKONGJIAN/Localization_ZHUSHENKONGJIAN.xlsx
@@ -506,7 +506,7 @@
           <t>Português-Chirriro</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Русский</t>
         </is>
@@ -548,7 +548,7 @@
           <t>Sobre "o passado"</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ඞО “прошлом”</t>
         </is>
@@ -608,7 +608,7 @@
 Those old rulers are the culprits that cause the chaos of the timeline</t>
         </is>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>ඞВселенная в прошлом называется "Старость", и это также изначальная вселенная этого мира.
 В ней существуют древние правители различных форм и могущественного влияния.
@@ -653,7 +653,7 @@
           <t>Sobre "Agora"</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>ඞО “Настоящем”</t>
         </is>
@@ -707,7 +707,7 @@
 In order to maintain the new universe, I need a lot of space-time power</t>
         </is>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>ඞЧтобы избежать конца пространства-времени, я создал новую изначальную вселенную.
 Однако временная линия в этой новой вселенной все еще переплетена с прошлым пространством-временем.
@@ -751,7 +751,7 @@
           <t>Sobre minha missão</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>ඞО моей миссии</t>
         </is>
@@ -804,7 +804,7 @@
 But remember, any small space-time interference will cause unknown changes to the world line</t>
         </is>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, чтобы это место работало.
 Мне нужно, чтобы ты путешествовал в пространстве-времени, чтобы собрать больше пространственно-временной энергии.
@@ -848,7 +848,7 @@
           <t>Sobre Sothoth</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>ඞО Сототе</t>
         </is>
@@ -892,7 +892,7 @@
           <t>.....Não faço ideia!</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>ඞ………………………
 Не знаю!</t>
@@ -935,7 +935,7 @@
           <t>Inf. da Comissão</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>ඞИнформация о комиссии</t>
         </is>
@@ -977,7 +977,7 @@
           <t>Registros</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>ඞЗаписи</t>
         </is>
@@ -1019,7 +1019,7 @@
           <t>Exploração</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>ඞИсследование5</t>
         </is>
@@ -1061,7 +1061,7 @@
           <t>Inimigos Encontrados</t>
         </is>
       </c>
-      <c r="H13" s="0" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>ඞВстречные Враги</t>
         </is>
@@ -1103,7 +1103,7 @@
           <t>Templo do Espaço-Tempo</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Храм пространства-времени</t>
         </is>
@@ -1145,7 +1145,7 @@
           <t>Ver as páginas em branco</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>ඞПросмотр пустых страниц</t>
         </is>
@@ -1193,7 +1193,7 @@
 Every word written on them can become actual history</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>ඞВы видите множество белых страниц, свисающих с неба.
 Каждое слово, написанное на них, может стать реальной историей.</t>
@@ -1236,7 +1236,7 @@
           <t>Ver foto</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>ඞПосмотреть фотографию</t>
         </is>
@@ -1284,7 +1284,7 @@
 Lembrando você da regra mais importante do tempo-</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>На фоторамке нарисована голубая бабочка
 Чтобы напомнить вам о самом важном правиле путешествия в пространство-времени——</t>
@@ -1339,7 +1339,7 @@
 Qualquer pequena alteração pode causar um "efeito de caos" irreversível.</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Следи за первоначальными изменениями
 Любое незначительное изменение может вызвать необратимый "ЭФФЕКТ ХАОСА".</t>
@@ -1383,7 +1383,7 @@
           <t>Posso usar os livros para determinar o espaço-tempo que irei a seguir.</t>
         </is>
       </c>
-      <c r="H20" s="0" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>ඞВ этих книгах я могу найти в какое пространство-время я отправиться дальше.</t>
         </is>
@@ -1431,7 +1431,7 @@
 É melhor criar um associado antes da viagem no tempo.</t>
         </is>
       </c>
-      <c r="H21" s="0" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>ඞУ меня пока нет сыщиков.
 Лучше создать создать одного перед поездкой в пространство-время.</t>
@@ -1474,7 +1474,7 @@
           <t>Criar um associado</t>
         </is>
       </c>
-      <c r="H22" s="0" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>ඞЧтобы создать ассоциированного пользователя</t>
         </is>
@@ -1517,7 +1517,7 @@
           <t>Continuar Vendo os Livros</t>
         </is>
       </c>
-      <c r="H23" s="0" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>ඞПродолжайте просматривать книги</t>
         </is>
@@ -1559,7 +1559,7 @@
           <t>Escolher Tempo Para Viajar</t>
         </is>
       </c>
-      <c r="H24" s="0" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Выбор модуля</t>
         </is>
@@ -1601,7 +1601,7 @@
           <t>Entrar no Tutorial</t>
         </is>
       </c>
-      <c r="H25" s="0" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Просмотреть обучение</t>
         </is>
@@ -1643,7 +1643,7 @@
           <t>Ver a Livraria de Papéis</t>
         </is>
       </c>
-      <c r="H26" s="0" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Просмотр библиотеки сыщиков</t>
         </is>
@@ -1685,7 +1685,7 @@
           <t>Monumento de Criação de Fãs</t>
         </is>
       </c>
-      <c r="H27" s="0" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Памятник сообществу</t>
         </is>
@@ -1727,7 +1727,7 @@
           <t>Música Anterior</t>
         </is>
       </c>
-      <c r="H28" s="0" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>ඞПредыдущая песня</t>
         </is>
@@ -1769,7 +1769,7 @@
           <t>Música Seguinte</t>
         </is>
       </c>
-      <c r="H29" s="0" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>ඞСледующая песня</t>
         </is>
@@ -1811,7 +1811,7 @@
           <t>Trocar Música</t>
         </is>
       </c>
-      <c r="H30" s="0" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Переключить музыку</t>
         </is>
@@ -1853,7 +1853,7 @@
           <t>Ver Toca-Discos</t>
         </is>
       </c>
-      <c r="H31" s="0" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>ඞПросмотр музыкального автомата</t>
         </is>
@@ -1895,7 +1895,7 @@
           <t>Arte que expressa emoções. É o deleite da Sothoth.</t>
         </is>
       </c>
-      <c r="H32" s="0" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>ඞИскусство, выражающее эмоции, доставляет удовольствие Сототу.</t>
         </is>
@@ -1943,7 +1943,7 @@
 This sense of familiarity makes you feel as though you have returned to your travels through time and space, while the screen of the machine in front of you flickers to life.</t>
         </is>
       </c>
-      <c r="H33" s="0" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>ඞВы чувствуете, как силы покидают ваше тело, и в вашем сознании начинают возникать образы из прошлого.
 Это знакомое ощущение заставляет вас почувствовать, что вы вернулись к своим путешествиям во времени и пространстве, в то время как экран устройства перед вами оживает.</t>
@@ -1986,7 +1986,7 @@
           <t>What on earth is this machine?</t>
         </is>
       </c>
-      <c r="H34" s="0" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>ඞЧто, черт возьми, это за машина?</t>
         </is>
@@ -2040,7 +2040,7 @@
 These are people you have seen before.</t>
         </is>
       </c>
-      <c r="H35" s="0" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь, на экране появляется черный вихрь, состоящий из бесчисленных песчинок.
 Когда вы приближаетесь, кажется, что эти песчинки оживают, превращаясь в разных людей.
@@ -2090,7 +2090,7 @@
 I never thought you would be able to activate this machine.</t>
         </is>
       </c>
-      <c r="H36" s="0" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>ඞКак неожиданно...
 Я никогда не думал, что вы сможете активировать эту машину.</t>
@@ -2133,7 +2133,7 @@
           <t>Aforgomon's gaze shifts to Sothoth, who is sitting in front of a desk. Sothoth merely lifts his head slightly, offering a smile, diving back into his sea of books.</t>
         </is>
       </c>
-      <c r="H37" s="0" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>ඞВзгляд Афоргомона перемещается на Сотота, который сидит за письменным столом. Сотот лишь слегка поднимает голову, улыбаясь, и снова погружается в свое море книг.</t>
         </is>
@@ -2182,7 +2182,7 @@
 Ah, your foolish expression tells me you don't understand its purpose yet.</t>
         </is>
       </c>
-      <c r="H38" s="0" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>ඞО чем думает Тавил?
 Ах, судя по твоему глупому выражению лица, ты еще не понимаешь его предназначения.</t>
@@ -2237,7 +2237,7 @@
 Why then is this temporal sand still preserved?</t>
         </is>
       </c>
-      <c r="H39" s="0" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>ඞЯ действительно не понимаю его назначения.
 Вы освободили все заключенные сознания.
@@ -2299,7 +2299,7 @@
 Why would They bother to restart time and space?</t>
         </is>
       </c>
-      <c r="H40" s="0" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>ඞЯ не обязан отвечать на ваш вопрос.
 Возможно, вы захотите подумать об этом сами.
@@ -2356,7 +2356,7 @@
 So Sothoth could only deal with the end of the future by restarting time and space.</t>
         </is>
       </c>
-      <c r="H41" s="0" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>ඞРазве это не для того, чтобы справиться с приближением конца?
 Вы не смогли прийти к консенсусу, чтобы изменить исход будущего…
@@ -2455,7 +2455,7 @@
 Since you've activated this part of the temporal sand, I will gift it to you.</t>
         </is>
       </c>
-      <c r="H42" s="0" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>ඞТвоя мысль настолько наивна, что заставляет меня рассмеяться.
 Возможно, на тебя слишком сильно повлияло мышление смертных.
@@ -2506,7 +2506,7 @@
           <t>Afterward, Aforgomon casts a displeased glance towards Sothoth, saying—</t>
         </is>
       </c>
-      <c r="H43" s="0" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>ඞПосле этого Афоргомон бросает недовольный взгляд на Сотота и говорит—</t>
         </is>
@@ -2548,7 +2548,7 @@
           <t>Tawil, you should understand, you cannot always control everything.</t>
         </is>
       </c>
-      <c r="H44" s="0" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>ඞТавил, ты должен понимать, что ты не можешь всегда все контролировать.</t>
         </is>
@@ -2590,7 +2590,7 @@
           <t>Ver Parceiros</t>
         </is>
       </c>
-      <c r="H45" s="0" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>ඞПосмотреть партнера</t>
         </is>
@@ -2644,7 +2644,7 @@
 Embora curioso, você sabe que é melhor não tocar nas coisas Dela se não quiser ter problemas.</t>
         </is>
       </c>
-      <c r="H46" s="0" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Необычная машина стоит на видном месте рядом с книжной полкой, как бы заявляя о своем суверенитете над этим пространством.
 Несомненно, ее яркие цвета указывают на то, что это дело рук Афоргомона.
@@ -2688,7 +2688,7 @@
           <t>Ver Console de Jogos</t>
         </is>
       </c>
-      <c r="H47" s="0" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Игровая консоль</t>
         </is>
@@ -2738,7 +2738,7 @@
 As galáxias circundantes cercam este lugar. Olhando em volta, o universo inteiro cobre a cúpula como uma película fina.</t>
         </is>
       </c>
-      <c r="H48" s="0" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Первым бросается в глаза стены храма состоящие из тысяч книг, каждая из которых представляет собой историю определенного пространства-времени
 В воздухе кружат созвездия.
@@ -2782,7 +2782,7 @@
           <t>Ver o Céu</t>
         </is>
       </c>
-      <c r="H49" s="0" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Посмотреть на небо</t>
         </is>
@@ -2824,7 +2824,7 @@
           <t>Ainda Não Disponível na Versão Atual</t>
         </is>
       </c>
-      <c r="H50" s="0" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>ඞПока недоступно в текущей версии</t>
         </is>
@@ -2866,7 +2866,7 @@
           <t>Write the fate of characters</t>
         </is>
       </c>
-      <c r="H51" s="0" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>ඞПишите судьбы персонажей</t>
         </is>
@@ -2914,7 +2914,7 @@
 É melhor criar um associado primeiro e depois reescrever um destino.</t>
         </is>
       </c>
-      <c r="H52" s="0" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>ඞУ меня пока нет никаких исторических ассоциаций.
 Лучше сначала создать связанного персонажа, а потом переписывать судьбу.</t>
@@ -2957,7 +2957,7 @@
           <t>Ver Primeira Prateleira</t>
         </is>
       </c>
-      <c r="H53" s="0" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Осмотреть верхнюю полку</t>
         </is>
@@ -2999,7 +2999,7 @@
           <t>Ver Segunda Prateleira</t>
         </is>
       </c>
-      <c r="H54" s="0" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Осмотреть вторую полку</t>
         </is>
@@ -3041,7 +3041,7 @@
           <t>Ver Terceira Prateleira</t>
         </is>
       </c>
-      <c r="H55" s="0" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Осмотреть третью полку</t>
         </is>
@@ -3083,7 +3083,7 @@
           <t>Ver Quarta Prateleira</t>
         </is>
       </c>
-      <c r="H56" s="0" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Осмотреть нижнюю полку</t>
         </is>
@@ -3125,7 +3125,7 @@
           <t>Muitos livros desconhecidos estão armazenados na estante esquerda.</t>
         </is>
       </c>
-      <c r="H57" s="0" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>В левом шкафу хранится много неизвестных книг</t>
         </is>
@@ -3167,7 +3167,7 @@
           <t>Muitos livros desconhecidos estão armazenados na estante direita.</t>
         </is>
       </c>
-      <c r="H58" s="0" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>В правом шкафу хранится много неизвестных книг</t>
         </is>
@@ -3209,7 +3209,7 @@
           <t>Conversar</t>
         </is>
       </c>
-      <c r="H59" s="0" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Поговорить</t>
         </is>
@@ -3251,7 +3251,7 @@
           <t>Não me incomode!</t>
         </is>
       </c>
-      <c r="H60" s="0" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Отстань!</t>
         </is>
@@ -3295,7 +3295,7 @@
 </t>
         </is>
       </c>
-      <c r="H61" s="0" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>ඞПохоже, они в хорошем настроении.</t>
         </is>
@@ -3337,7 +3337,7 @@
           <t>Afogomorn! The disappearance of the associate, did you do that!</t>
         </is>
       </c>
-      <c r="H62" s="0" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>ඞАфоргомон! Исчезновение сотрудника, это вы сделали!</t>
         </is>
@@ -3412,7 +3412,7 @@
 Then no one will bother me anymore.</t>
         </is>
       </c>
-      <c r="H63" s="0" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>ඞСколько хлопот!
 Да, я сделал это!
@@ -3460,7 +3460,7 @@
           <t>Will I become a lunatic?!</t>
         </is>
       </c>
-      <c r="H64" s="0" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>ඞНеужели я стану сумасшедшим?!</t>
         </is>
@@ -3526,7 +3526,7 @@
 What would happen if a mortal's spirit was broken?</t>
         </is>
       </c>
-      <c r="H65" s="0" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>ඞРазве Тавил тебе не говорил?
 Ааааа,
@@ -3574,7 +3574,7 @@
 </t>
         </is>
       </c>
-      <c r="H66" s="0" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>ඞЯ могу исцелить их разбитые сердца.</t>
         </is>
@@ -3652,7 +3652,7 @@
 Of course, I will have the power you collected.</t>
         </is>
       </c>
-      <c r="H67" s="0" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>ඞЧто ж, ты их не исправляешь.
 Ты их заменяешь.
@@ -3703,7 +3703,7 @@
 </t>
         </is>
       </c>
-      <c r="H68" s="0" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>ඞПочему ты так на меня смотришь? 
 Это из-за тебя исчезли те люди.</t>
@@ -3746,7 +3746,7 @@
           <t>I… do I have any way to get them back?</t>
         </is>
       </c>
-      <c r="H69" s="0" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>ඞЯ... у меня есть какой-нибудь способ вернуть их?</t>
         </is>
@@ -3794,7 +3794,7 @@
 You want me to help you?</t>
         </is>
       </c>
-      <c r="H70" s="0" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>ඞА? Интересно~
 Ты хочешь, чтобы я тебе помог?</t>
@@ -3849,7 +3849,7 @@
 But I don't want them to be forgotten and disappear like this…</t>
         </is>
       </c>
-      <c r="H71" s="0" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>ඞДа, я не знал об этой ситуации раньше.
 Спасибо вам за помощь…
@@ -3895,7 +3895,7 @@
 </t>
         </is>
       </c>
-      <c r="H72" s="0" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>ඞО, конечно.</t>
         </is>
@@ -3943,7 +3943,7 @@
 In this way, you can restore the person I have taken.</t>
         </is>
       </c>
-      <c r="H73" s="0" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>ඞПомоги мне собрать силу пространства и времени.
 Таким образом, ты сможешь вернуть человека, которого я забрал.</t>
@@ -3986,7 +3986,7 @@
           <t>Why do you want the power of space and time?</t>
         </is>
       </c>
-      <c r="H74" s="0" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>ඞЗачем вам нужна власть над пространством и временем?</t>
         </is>
@@ -4031,7 +4031,7 @@
 Do you think that you don't need materials to repair the broken container?!</t>
         </is>
       </c>
-      <c r="H75" s="0" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>ඞЭто забавно.
 Как вы думаете, не нужны ли материалы для ремонта сломанного контейнера?!</t>
@@ -4076,7 +4076,7 @@
 </t>
         </is>
       </c>
-      <c r="H76" s="0" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>ඞЛадно, договорились.</t>
         </is>
@@ -4118,7 +4118,7 @@
           <t>Ver Lista de Desenvolvedores</t>
         </is>
       </c>
-      <c r="H77" s="0" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Титры</t>
         </is>
@@ -4160,7 +4160,7 @@
           <t>Você encontra uma lista na estante cheia de vários nomes.</t>
         </is>
       </c>
-      <c r="H78" s="0" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Вы находите на книжной полке страницу, заполненную различными именами.</t>
         </is>
@@ -4198,7 +4198,7 @@
           <t>先将无光之海的已</t>
         </is>
       </c>
-      <c r="H79" s="0" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>ඞМне нужно рассказать Сотосу о ситуации в неосвещенном море.</t>
         </is>
@@ -4241,7 +4241,7 @@
           <t>Devo ir contar a Sothoth sobre a situação do Mar Sem Sol.</t>
         </is>
       </c>
-      <c r="H80" s="0" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>ඞНужно пойти и рассказать Сотот о том что творится с Бессолнечным Морем.</t>
         </is>
@@ -4289,7 +4289,7 @@
 Mas está tudo bem para você?</t>
         </is>
       </c>
-      <c r="H81" s="0" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>ඞСотот, распространение хаотической временной линии в Бессолнечном Море прекратилось.
 С тобой точно ничего не случится?</t>
@@ -4344,7 +4344,7 @@
 Mas para apagar completamente todas as anormalidades, não posso fazer isso ainda.</t>
         </is>
       </c>
-      <c r="H82" s="0" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>ඞВсе в порядке, до тех пор пока не потребляется слишком много энергии пространства-времени. 
 Я еще могу поддерживать критическую точку.
@@ -4388,7 +4388,7 @@
           <t>Existe alguma coisa que eu possa ajudá-la?</t>
         </is>
       </c>
-      <c r="H83" s="0" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>ඞЧем я могу помочь?</t>
         </is>
@@ -4431,7 +4431,7 @@
           <t>Você vê Sothoth hesitar um pouco após suas palavras.</t>
         </is>
       </c>
-      <c r="H84" s="0" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>ඞВы видите, что Сотот колеблется после ваших слов.</t>
         </is>
@@ -4492,7 +4492,7 @@
 E então, traga aquela pequena "mudança" de volta aqui, e isso se tornaria o poder de preencher o espaço e o tempo.</t>
         </is>
       </c>
-      <c r="H85" s="0" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>ඞНовое пространство все еще очень хрупкое, и для того, чтобы библиотека заработала…
 Звездный ключ, мне нужно, чтобы ты побывал во всех аномальных точках пространство-времени…
@@ -4537,7 +4537,7 @@
           <t>Eu entendo.</t>
         </is>
       </c>
-      <c r="H86" s="0" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>ඞЯ понимаю.</t>
         </is>
@@ -4597,7 +4597,7 @@
 Meu poder irá protegê-lo da morte real, mas você ainda enfrentará a dor da morte.</t>
         </is>
       </c>
-      <c r="H87" s="0" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>ඞТем не менее, Star Key… ты отправишься в хаотичное время истории. 
 Тебе нужно будет установить связь с людьми в том пространство-времени.
@@ -4649,7 +4649,7 @@
 Irei a todos esses lugares da história assim que puder, para ajudá-la a recuperar seu poder.</t>
         </is>
       </c>
-      <c r="H88" s="0" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>ඞНе волнуйся, Сотот.
 Чтобы помочь тебе восстановить силы, я исправлю все эти точки пространства-времени.</t>
@@ -4705,7 +4705,7 @@
 Afogomorn ocupa esta área sem cerimônia, com uma estranha alça com botões em ambas as mãos e uma estranha bagunça de objetos espalhados.</t>
         </is>
       </c>
-      <c r="H89" s="0" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Вы замечаете что-то, что не вписывается в это место в правой части библиотеки --
 Огромный разукрашенный железный ящик с мерцающим стеклом…
@@ -4749,7 +4749,7 @@
           <t>Sothoth, o que há de errado com ela!?</t>
         </is>
       </c>
-      <c r="H90" s="0" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Сотот, что с Ним не так?!</t>
         </is>
@@ -4793,7 +4793,7 @@
           <t>Raramente você vê Sothoth com uma expressão de resignação enquanto ela coloca a mão entre as sobrancelhas.</t>
         </is>
       </c>
-      <c r="H91" s="0" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Редко можно увидеть столь смиренное лицо Сотот, когда она прикладывает руку к бровям.</t>
         </is>
@@ -4860,7 +4860,7 @@
 Ela não interfere mais no espaço e no tempo, e eu também não posso interferir na liberdade dela.</t>
         </is>
       </c>
-      <c r="H92" s="0" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>После того как я полностью пробудилось наше общее "Я" уснуло.
 Афоргомон никогда не желал сливаться со мной.
@@ -4906,7 +4906,7 @@
           <t>.Mas isso não vai causar mais problemas?</t>
         </is>
       </c>
-      <c r="H93" s="0" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>...Но разве это не вызовет еще больше проблем?</t>
         </is>
@@ -4967,7 +4967,7 @@
 Mas certamente preservarão o Novo Mundo que criamos.</t>
         </is>
       </c>
-      <c r="H94" s="0" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>В конце концов Афоргомон является ключом к стиранию хаотических временных линий.
 Он видел слишком много разрушений, что повлияло на характер.
@@ -5012,7 +5012,7 @@
           <t>Okay.</t>
         </is>
       </c>
-      <c r="H95" s="0" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Лааадно…</t>
         </is>
@@ -5054,7 +5054,7 @@
           <t>Sothoth, have you found anything?</t>
         </is>
       </c>
-      <c r="H96" s="0" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>ඞСотот, ты что-нибудь нашел?</t>
         </is>
@@ -5108,7 +5108,7 @@
 Although there are some causes and consequeces, some of them are against the rules.</t>
         </is>
       </c>
-      <c r="H97" s="0" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>ඞДевочке по имени Ноэль не суждено было сложиться такой судьбой. 
 История, представленная на этой странице, кажется, изящно переплетена с другими историями. 
@@ -5167,7 +5167,7 @@
 </t>
         </is>
       </c>
-      <c r="H98" s="0" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>ඞЯ чувствую себя немного неуютно… 
 Хотя я восстановил пространство и время.
@@ -5229,7 +5229,7 @@
 As long as you don't forget this place, it won't affect at all.</t>
         </is>
       </c>
-      <c r="H99" s="0" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>ඞНе волнуйся, мы существуем только потому, что прошлого не изменишь.
 Ребенок был прав…
@@ -5274,7 +5274,7 @@
           <t>Then why did they do this?</t>
         </is>
       </c>
-      <c r="H100" s="0" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>ඞТогда зачем они это сделали?</t>
         </is>
@@ -5318,7 +5318,7 @@
 </t>
         </is>
       </c>
-      <c r="H101" s="0" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>ඞСотот качает головой.</t>
         </is>
@@ -5396,7 +5396,7 @@
 This would be your biggest obstacle.</t>
         </is>
       </c>
-      <c r="H102" s="0" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>ඞВ чем они действительно хороши, так это в изменении идентичности других людей и превращении их в самих себя.
 Они - это они, тысячи и тысячи взаимосвязанных и противоречивых личностей.
@@ -5446,7 +5446,7 @@
 </t>
         </is>
       </c>
-      <c r="H103" s="0" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>ඞПонятно, я буду более осторожен.</t>
         </is>
@@ -5506,7 +5506,7 @@
 But don't expect me to fix it!</t>
         </is>
       </c>
-      <c r="H104" s="0" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>ඞХа, ты не умеешь драться, но тебе все равно приходится создавать проблемы.
 Вот так тебя избили, и ты просишь меня положить этому конец. Какой ты способный!
@@ -5563,7 +5563,7 @@
 Thank you so much this time.</t>
         </is>
       </c>
-      <c r="H105" s="0" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>ඞЧто ж, позвольте мне продолжить.
 Если бы Звездный Ключ был разрушен силой Тиндалоса, я определенно не смог бы восстановить его снова.
@@ -5607,7 +5607,7 @@
           <t>Huh, it's good that you know it!</t>
         </is>
       </c>
-      <c r="H106" s="0" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>ඞХа, хорошо, что ты это знаешь!</t>
         </is>
@@ -5651,7 +5651,7 @@
 </t>
         </is>
       </c>
-      <c r="H107" s="0" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>ඞАфоргомон бросает вас к Сотота, а затем возвращается на свое место, чтобы продолжить игру.</t>
         </is>
@@ -5699,7 +5699,7 @@
 Sothoth says to you after he saw that you have regained some consciousness.</t>
         </is>
       </c>
-      <c r="H108" s="0" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>ඞТы просыпаешься, но когда видишь встревоженный взгляд Сотота, ты проглатываешь свои слова.
 Сотот говорит тебе, увидев, что ты немного пришел в себя.</t>
@@ -5779,7 +5779,7 @@
 Everything would be irreversible…</t>
         </is>
       </c>
-      <c r="H109" s="0" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>ඞТиндалосы нападали на любого, кто путешествовал по нему, чтобы любой ценой контролировать пространство-время.
 После того, как они убивали путешественника, они поглощали обломки пространства-времени. 
@@ -5829,7 +5829,7 @@
 </t>
         </is>
       </c>
-      <c r="H110" s="0" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>ඞИзвините, я поступил неправильно.</t>
         </is>
@@ -5883,7 +5883,7 @@
 Now, have a good rest.</t>
         </is>
       </c>
-      <c r="H111" s="0" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>ඞПутешествие в хаотичном пространстве-времени будет сопряжено с большой опасностью.
 Я знал это с самого начала…
@@ -5930,7 +5930,7 @@
 | After a long time, the library is restart, and your body has recovered as before.</t>
         </is>
       </c>
-      <c r="H112" s="0" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>ඞВнезапно свет в библиотеке гаснет, и все книги перестают переворачиваться.
 | Спустя долгое время библиотека перезапускается, и ваше тело восстанавливается, как и раньше.</t>
@@ -5981,7 +5981,7 @@
 </t>
         </is>
       </c>
-      <c r="H113" s="0" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>ඞТы что, тупой?!Если тебе есть что сказать, просто скажи это!
 Если это просто бесполезная благодарность, можешь идти на хуй.</t>
@@ -6024,7 +6024,7 @@
           <t>Afogomorn, I want you to help me!</t>
         </is>
       </c>
-      <c r="H114" s="0" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>ඞПрости, я хочу, чтобы ты помог мне!</t>
         </is>
@@ -6066,7 +6066,7 @@
           <t>Funny, why should I help you?</t>
         </is>
       </c>
-      <c r="H115" s="0" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>ඞЗабавно, но почему я должен тебе помогать?</t>
         </is>
@@ -6116,7 +6116,7 @@
 </t>
         </is>
       </c>
-      <c r="H116" s="0" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>ඞПотому что я понял одну вещь.
 То, что ты делал раньше, разумно.</t>
@@ -6159,7 +6159,7 @@
           <t>Oh? You mean, you agree with my idea?</t>
         </is>
       </c>
-      <c r="H117" s="0" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>ඞ«о? Вы хотите сказать, что согласны с моей идеей?</t>
         </is>
@@ -6217,7 +6217,7 @@
 We cannot get rid of that consumption, in the end, everything will fall into the void.</t>
         </is>
       </c>
-      <c r="H118" s="0" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>ඞУ нас есть возможность устранить хаос в пространстве-времени. 
 Однако ресурсы, необходимые для этого, требуют определенных затрат.
@@ -6268,7 +6268,7 @@
 You finally realize your works are useless.</t>
         </is>
       </c>
-      <c r="H119" s="0" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>ඞКонечно, это интересно.
 Вы, наконец, понимаете, что ваши работы бесполезны.</t>
@@ -6347,7 +6347,7 @@
 To break the prison!</t>
         </is>
       </c>
-      <c r="H120" s="0" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>ඞЭто верно, мы подобны заключенным в тюрьме, ожидающим уничтожения.
 Те, у кого нет вечной жизни, просто не могут ощутить существование тюрьмы.
@@ -6400,7 +6400,7 @@
 Hahahahahahahahaha.</t>
         </is>
       </c>
-      <c r="H121" s="0" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>ඞАхахахахахаха.
 Хахахахахахахаха.</t>
@@ -6449,7 +6449,7 @@
 After a long time, you heard a sigh.</t>
         </is>
       </c>
-      <c r="H122" s="0" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>ඞКазалось, они услышали самую смешную вещь, которую когда-либо слышали, и не могли удержаться от смеха.
 Спустя долгое время вы услышали вздох.</t>
@@ -6498,7 +6498,7 @@
 And with the current power you have, why do you think you can help me?</t>
         </is>
       </c>
-      <c r="H123" s="0" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>ඞДаже когда-то цельный я не смогу вырваться из этой клетки.
 И с той силой, которой ты обладаешь сейчас, почему ты думаешь, что сможешь мне помочь?</t>
@@ -6559,7 +6559,7 @@
 At that time, we will create a new world.</t>
         </is>
       </c>
-      <c r="H124" s="0" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>ඞДействительно, в настоящее время я не могу вам помочь.
 Но теперь я нашел свой путь и то, что мне нужно сделать, я постараюсь достичь этой цели.
@@ -6613,7 +6613,7 @@
 I will help you.</t>
         </is>
       </c>
-      <c r="H125" s="0" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>ඞЛадно, ладно, я понял.
 Если ты столкнешься с серьезными врагами во время путешествия во времени, я помогу тебе.</t>
@@ -6672,7 +6672,7 @@
 And Tindalos will hunt for it.</t>
         </is>
       </c>
-      <c r="H126" s="0" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>ඞТиндалос заблокировал ваше местоположение.
 Это должно быть вызвано вашим первоначальным наблюдением за этим камнем.
@@ -6723,7 +6723,7 @@
 And the end was doomed from the beginning.</t>
         </is>
       </c>
-      <c r="H127" s="0" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>ඞКартер всегда верил, что сможет сбежать с помощью камня.
 И конец был предопределен с самого начала.</t>
@@ -6784,7 +6784,7 @@
 At the same time, it will also be helpful for your space travel.</t>
         </is>
       </c>
-      <c r="H128" s="0" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>ඞЭтот камень может помочь мне восстановить часть моей силы.
 Я поглощу его и создам проекцию для тебя, чтобы ослабить его действие.
@@ -6848,7 +6848,7 @@
 Is there any way for me to meet them before a certain event?</t>
         </is>
       </c>
-      <c r="H129" s="0" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>ඞБолее того, Сотот...
 После того, как я переписал историю, я обнаружил несколько выдающихся личностей.
@@ -6909,7 +6909,7 @@
 You can use my power to create such a possibility.</t>
         </is>
       </c>
-      <c r="H130" s="0" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>ඞЯ понимаю твое желание, Звездный Ключ.
 Однако я не могу напрямую защитить их без четкой связи.
@@ -6954,7 +6954,7 @@
           <t>Thank you, Sothoth!</t>
         </is>
       </c>
-      <c r="H131" s="0" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>ඞСпасибо тебе, Сотот!</t>
         </is>
@@ -6998,7 +6998,7 @@
 </t>
         </is>
       </c>
-      <c r="H132" s="0" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>ඞФункция создания первоначальной команды компаньонов недоступна в текущей версии, приносим извинения за доставленные неудобства.</t>
         </is>
@@ -7046,7 +7046,7 @@
 But now it seems that you are completely used to space travel.</t>
         </is>
       </c>
-      <c r="H133" s="0" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>ඞСтар Ки, я немного волновался.
 Но теперь, похоже, ты полностью привык к космическим путешествиям.</t>
@@ -7098,7 +7098,7 @@
 it's time travel, too?</t>
         </is>
       </c>
-      <c r="H134" s="0" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>ඞЯ не знаю, в этом все еще много путаницы.
 Сотот, ты думаешь, что этот разговор, который я веду с тобой
@@ -7148,7 +7148,7 @@
 What do you think?</t>
         </is>
       </c>
-      <c r="H135" s="0" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>ඞЯ не могу выйти за рамки возможного, чтобы ответить на этот вопрос.
 Что вы думаете?</t>
@@ -7209,7 +7209,7 @@
 It would be much better, but…</t>
         </is>
       </c>
-      <c r="H136" s="0" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>ඞУ меня тоже нет ответа.
 Но я знаю, просто отнесись к этому серьезно.
@@ -7259,7 +7259,7 @@
           <t>……</t>
         </is>
       </c>
-      <c r="H137" s="0" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>ඞТем не менее, вы все еще можете чувствовать, что путь впереди темен и неопределенен.
 Вы не знаете, куда он ведет, и боитесь шагнуть в пропасть?</t>
@@ -7302,7 +7302,7 @@
           <t>Here is the thing…</t>
         </is>
       </c>
-      <c r="H138" s="0" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>ඞВот в чем дело…</t>
         </is>
@@ -7344,7 +7344,7 @@
           <t>Star Key, do you know what is "The Self" ?</t>
         </is>
       </c>
-      <c r="H139" s="0" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>ඞСтар Ки, знаешь ли ты, что такое "Я"?</t>
         </is>
@@ -7388,7 +7388,7 @@
 Carl.</t>
         </is>
       </c>
-      <c r="H140" s="0" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>ඞОднажды я получил известие от мистера Карла.</t>
         </is>
@@ -7455,7 +7455,7 @@
 Although I gave up something but also closer to "The Self", this is the result of my choice.</t>
         </is>
       </c>
-      <c r="H141" s="0" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>ඞСтремление к "я" - это процесс самоотречения. 
 Поскольку я больше не обладаю "всеведением", я больше не могу ясно видеть будущее. 
@@ -7502,7 +7502,7 @@
           <t>This what I can feel, you are completely different from them…</t>
         </is>
       </c>
-      <c r="H142" s="0" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>ඞЭто то, что я чувствую, ты совершенно отличаешься от них…</t>
         </is>
@@ -7544,7 +7544,7 @@
           <t>I know, no matter the result, the most important thing is your choice…</t>
         </is>
       </c>
-      <c r="H143" s="0" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>ඞЯ знаю, что независимо от результата, самое главное - это ваш выбор…</t>
         </is>
@@ -7597,7 +7597,7 @@
 If we can prevent disaster from happening, so why do we need to create a new world?</t>
         </is>
       </c>
-      <c r="H144" s="0" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>ඞСотот, действительно ли я могу изменить историю, чтобы избежать трагедии?
 Если мы можем предотвратить катастрофу, то зачем нам создавать новый мир?</t>
@@ -7646,7 +7646,7 @@
 After pondering for a while, Sothoth tells you,</t>
         </is>
       </c>
-      <c r="H145" s="0" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>ඞСотот чувствует ваши подавленные эмоции.
 Немного поразмыслив, Сотот говорит вам,</t>
@@ -7724,7 +7724,7 @@
 Nothing will change essentially…</t>
         </is>
       </c>
-      <c r="H146" s="0" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>ඞПотому что нам нужны "ПЕРЕМЕНЫ".
 Наша цель - не избежать конца пространства и времени.
@@ -7780,7 +7780,7 @@
 </t>
         </is>
       </c>
-      <c r="H147" s="0" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>ඞЧто означает это "ИЗМЕНЕНИЕ"?
 И теперь даже я не могу сказать вам, правильно ли то, что я делал в те времена, или нет.</t>
@@ -7859,7 +7859,7 @@
 You are looking for the meaning when you are confused, this is the meaning of Change.</t>
         </is>
       </c>
-      <c r="H148" s="0" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ… вам нужно сделать только одно.
 Соедините настоящее и будущее этих драгоценных вещей.
@@ -7907,7 +7907,7 @@
           <t>Where is the Afogomorn?</t>
         </is>
       </c>
-      <c r="H149" s="0" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>ඞГде же этот Прощелыга?</t>
         </is>
@@ -7949,7 +7949,7 @@
           <t>Wait for Sothoth to come back…</t>
         </is>
       </c>
-      <c r="H150" s="0" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>ඞЖдать возвращения Сотота…</t>
         </is>
@@ -7993,7 +7993,7 @@
 </t>
         </is>
       </c>
-      <c r="H151" s="0" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>ඞТы смотрел на небо и ждал… | Пока на куполе не засияли звезды… | Затем ты увидел, как Сотот и Афоргомон возвращаются в храм.</t>
         </is>
@@ -8035,7 +8035,7 @@
           <t>Tawil, this is what you came up with!</t>
         </is>
       </c>
-      <c r="H152" s="0" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>ඞТавил, вот что ты придумал!</t>
         </is>
@@ -8089,7 +8089,7 @@
 And if we continue to fight, we will only cause unnecessary losses to each other.</t>
         </is>
       </c>
-      <c r="H153" s="0" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>ඞДа, этот план хорош для нас обоих.
 Ты набираешься сил и сражаешься вместе со мной.
@@ -8139,7 +8139,7 @@
 </t>
         </is>
       </c>
-      <c r="H154" s="0" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>ඞИнтересный. То есть, вы хотите сказать, что я стираю остатки сознания основного тела. 
 И вы передадите власть мне, и я буду управлять этой библиотекой.</t>
@@ -8194,7 +8194,7 @@
 So as long as you participate, you will surely gain something.</t>
         </is>
       </c>
-      <c r="H155" s="0" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>ඞБолее того, я не буду соревноваться с вами в силе нашего тела.
 Даже если вы потерпите неудачу, я буду выплачивать вам пространственно-временные очки.
@@ -8238,7 +8238,7 @@
           <t>Interesting, what are the conditions?</t>
         </is>
       </c>
-      <c r="H156" s="0" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>ඞИнтересно, какие это условия?</t>
         </is>
@@ -8286,7 +8286,7 @@
 And in the recovery process, the ability of the Star Key will play a key role in helping.</t>
         </is>
       </c>
-      <c r="H157" s="0" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>ඞЯ надеюсь, что вы со Звездным Ключом будете работать сообща.
 В процессе восстановления способность Звездного ключа будет играть ключевую роль.</t>
@@ -8335,7 +8335,7 @@
 Anyway, idle is idle, I accept this bet!</t>
         </is>
       </c>
-      <c r="H158" s="0" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>ඞКакая неприятность!
 В любом случае, холостой ход есть холостой ход, я принимаю это пари!</t>
@@ -8378,7 +8378,7 @@
           <t>O módulo de combate não está disponível nesta versão no momento. Por favor, aceite as nossas desculpas.</t>
         </is>
       </c>
-      <c r="H159" s="0" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>ඞБоевой модуль в настоящее время недоступен в этой версии, пожалуйста, примите наши извинения.</t>
         </is>
@@ -8420,7 +8420,7 @@
           <t>View</t>
         </is>
       </c>
-      <c r="H160" s="0" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>ඞПосмотреть</t>
         </is>
@@ -8468,7 +8468,7 @@
 Let's go on a journey after they come back.</t>
         </is>
       </c>
-      <c r="H161" s="0" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>ඞТак что дай мне немного отдохнуть.
 Давай отправимся в путешествие, когда они вернутся.</t>
@@ -8517,7 +8517,7 @@
 Tawil, você gosta de fazer essas coisas desnecessárias.</t>
         </is>
       </c>
-      <c r="H162" s="0" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>Как же они глаза мозолят.
 Нравится же тебе мастерить всякую чепуху, Тавил.</t>
@@ -8566,7 +8566,7 @@
 Você não acha lindo?</t>
         </is>
       </c>
-      <c r="H163" s="0" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>Все это - моя драгоценная собственность.
 Разве тебе не кажется, что они прекрасны?</t>
@@ -8612,7 +8612,7 @@
 O que há de tão precioso.</t>
         </is>
       </c>
-      <c r="H164" s="0" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>Всего лишь блестящая пыльца.
 Что же в ней такого ценного?</t>
@@ -8673,7 +8673,7 @@
 E porque elas têm nomes.</t>
         </is>
       </c>
-      <c r="H165" s="0" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>Они помогают мне взаимодействовать с миром.
 Каждый сегмент сознания создан уникальной душой.
@@ -8733,7 +8733,7 @@
 Você deve saber que estamos separadas porque não conseguimos chegar a um acordo!</t>
         </is>
       </c>
-      <c r="H166" s="0" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>Остановись!
 Хватит! Хватит! Хватит!
@@ -8784,7 +8784,7 @@
 Afogomorn, você se lembra do que aconteceu antes?</t>
         </is>
       </c>
-      <c r="H167" s="0" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>Совершенно не могу вспомнить, какой я была до того как мы разделились.
 Афоргомон, ты помнишь что было раньше?</t>
@@ -8842,7 +8842,7 @@
 De qualquer forma, é bom não interferirmos uma com a outra agora.</t>
         </is>
       </c>
-      <c r="H168" s="0" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>…
 Тебе не понравится об этом вспоминать!
@@ -8891,7 +8891,7 @@
           <t>Sothoth, did something go wrong with this trip? I can't successfully go to the target time and space now</t>
         </is>
       </c>
-      <c r="H169" s="0" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>ඞСотот, что-то пошло не так с этим путешествием?
 Я не могу успешно добраться до нужного времени и пространства.</t>
@@ -8961,7 +8961,7 @@
 We must borrow Afogomorn's power</t>
         </is>
       </c>
-      <c r="H170" s="0" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>ඞДа… Потому что это пространство-время немного особенное.
 На него влияет мое остаточное сознание.
@@ -9008,7 +9008,7 @@
           <t>But… Their power often only causes more serious disasters</t>
         </is>
       </c>
-      <c r="H171" s="0" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>ඞНо… Их мощь часто приводит только к более серьезным катастрофам.</t>
         </is>
@@ -9059,7 +9059,7 @@
 At the same time, I will always pay attention to them here</t>
         </is>
       </c>
-      <c r="H172" s="0" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>ඞНет, теперь они одержимы идеей отомстить мне.
 Их не заботят другие вещи.
@@ -9106,7 +9106,7 @@
           <t>Hmm… is there anything else to watch out for?</t>
         </is>
       </c>
-      <c r="H173" s="0" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>ඞХм... есть еще что-нибудь, на что следует обратить внимание?</t>
         </is>
@@ -9175,7 +9175,7 @@
 I have made an agreement with Afogomorn that they will assist you at critical moments</t>
         </is>
       </c>
-      <c r="H174" s="0" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>ඞЭто путешествие совершенно особенное. 
 Поэтому, чтобы помочь вам, я наделю вас большей силой.
@@ -9228,7 +9228,7 @@
 I'm off to discuss with Afogomorn how to work together effectively</t>
         </is>
       </c>
-      <c r="H175" s="0" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>ඞПонимать……
 Я ухожу, чтобы обсудить с Афоргомон, как эффективно работать вместе</t>
@@ -9289,7 +9289,7 @@
 So you need to cooperate I complete a test</t>
         </is>
       </c>
-      <c r="H176" s="0" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>ඞЧто ж, я вижу, что вы немного колеблетесь.
 Это выражение сомнения и недоверия.
@@ -9335,7 +9335,7 @@
           <t>How do I cooperate?</t>
         </is>
       </c>
-      <c r="H177" s="0" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>ඞКак я могу сотрудничать?</t>
         </is>
@@ -9377,7 +9377,7 @@
           <t>Just when you questioned, the snake in front of them opened its huge mouth, and a small part of your body's strength was taken away</t>
         </is>
       </c>
-      <c r="H178" s="0" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вы задавали вопросы, змея перед ними открыла свою огромную пасть, и небольшая часть силы вашего тела была отнята.</t>
         </is>
@@ -9438,7 +9438,7 @@
 You need a little innovation The change</t>
         </is>
       </c>
-      <c r="H179" s="0" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>ඞНе волнуйтесь.
 Хотя я вас ненавижу, я не стану нарушать правила пари, что Сотот слишком консервативен.
@@ -9483,7 +9483,7 @@
           <t>Then, you saw him pull out a blazing light from the giant snake's mouth and throw it into your body</t>
         </is>
       </c>
-      <c r="H180" s="0" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>ඞЗатем вы увидели, как он вытащил пылающий свет из пасти гигантской змеи и бросил его в ваше тело.</t>
         </is>
@@ -9551,7 +9551,7 @@
 Then you will experience it slowly</t>
         </is>
       </c>
-      <c r="H181" s="0" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>ඞСпособность преодолевать все препятствия позволяет вам попасть куда угодно.
 Это действительно завидная способность.
@@ -9598,7 +9598,7 @@
           <t>At the desk in the library, you told Sothoth about your travel experience | They listened patiently, and there was a red ring on the desk</t>
         </is>
       </c>
-      <c r="H182" s="0" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>ඞЗа столом в библиотеке вы рассказали Сототу о своем путешествии. | Они терпеливо выслушали вас, и на столе появилось красное кольцо.</t>
         </is>
@@ -9667,7 +9667,7 @@
 Giving birth to a new consciousness</t>
         </is>
       </c>
-      <c r="H183" s="0" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>ඞЭтот фрагмент обладает способностью изменять информацию, хранящуюся в памяти человека.
 Восстанавливая память и пробуждая инстинкт…
@@ -9714,7 +9714,7 @@
           <t>A light blue light condensed in Sothoth' hands, but the light soon faded away</t>
         </is>
       </c>
-      <c r="H184" s="0" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>ඞВ руках Сотота сгустился светло-голубой свет, но вскоре он погас.</t>
         </is>
@@ -9766,7 +9766,7 @@
 </t>
         </is>
       </c>
-      <c r="H185" s="0" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>ඞК сожалению, это сознание решило разрушить "я", чтобы остановить распространение беспорядочной энергии.
 Даже если я восстановлю ее тело, ее "я" не восстановится.</t>
@@ -9809,7 +9809,7 @@
           <t>Sothoth sighed deeply</t>
         </is>
       </c>
-      <c r="H186" s="0" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>ඞСотот глубоко вздохнул</t>
         </is>
@@ -9859,7 +9859,7 @@
 </t>
         </is>
       </c>
-      <c r="H187" s="0" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>ඞЭто выбор, сделанный Джойей.
 На ее месте я бы тоже принял такое решение.</t>
@@ -9919,7 +9919,7 @@
 Not to separate</t>
         </is>
       </c>
-      <c r="H188" s="0" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, никто не хочет повторять одни и те же ошибки.
 Вы должны соблюдать наше соглашение.
@@ -9964,7 +9964,7 @@
           <t>I know, Sothoth…</t>
         </is>
       </c>
-      <c r="H189" s="0" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>ඞЯ знаю, Сотот…</t>
         </is>
@@ -10006,7 +10006,7 @@
           <t>At the desk in the library, you told Sothoth about the experience of this trip</t>
         </is>
       </c>
-      <c r="H190" s="0" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>ඞЗа столом в библиотеке вы рассказали Сототу о впечатлениях от этой поездки</t>
         </is>
@@ -10091,7 +10091,7 @@
 And they will demons come true</t>
         </is>
       </c>
-      <c r="H191" s="0" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>ඞИбом - одно из немногих существ, которые не будут активно вмешиваться в пространство-время
 Он очень любит прятаться в темноте и наблюдать за всем в мире.
@@ -10140,7 +10140,7 @@
           <t>What is the relationship between the Scottners in the tower and Ibom?</t>
         </is>
       </c>
-      <c r="H192" s="0" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>ඞКакова связь между Sgetnas в башне и Ibom?</t>
         </is>
@@ -10215,7 +10215,7 @@
 But this is the way the Sgetnas think they can avoid the punishment of the gods</t>
         </is>
       </c>
-      <c r="H193" s="0" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>ඞПо сути, сгетна - это дети Ибома.
 Для Ибома цивилизация, созданная сгетнами, является вырождением.
@@ -10266,7 +10266,7 @@
           <t>Sothoth… Is this a good ending for them?</t>
         </is>
       </c>
-      <c r="H194" s="0" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>ඞСотот… Для них это хороший конец?</t>
         </is>
@@ -10308,7 +10308,7 @@
           <t>Sothoth pondered for a while, then slowly replied</t>
         </is>
       </c>
-      <c r="H195" s="0" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>ඞСотот некоторое время размышлял, затем медленно ответил</t>
         </is>
@@ -10374,7 +10374,7 @@
 But you must not sink into it Your mission is to keep writing these things forever</t>
         </is>
       </c>
-      <c r="H196" s="0" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>ඞС моей точки зрения.
 Судьба человека похожа на паутину переплетенных циклов.
@@ -10421,7 +10421,7 @@
           <t>I know……</t>
         </is>
       </c>
-      <c r="H197" s="0" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>ඞЯ знаю……</t>
         </is>
@@ -10463,7 +10463,7 @@
           <t>Sothoth seemed to sense your loss, and said softly</t>
         </is>
       </c>
-      <c r="H198" s="0" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>ඞСотот, казалось, почувствовал твою потерю и тихо сказал:</t>
         </is>
@@ -10508,7 +10508,7 @@
 It won't be a bad ending</t>
         </is>
       </c>
-      <c r="H199" s="0" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>ඞНо до тех пор, пока история не закончится нормально.
 Это не будет плохой концовкой.</t>
@@ -10557,7 +10557,7 @@
 In front of you is information about the location.</t>
         </is>
       </c>
-      <c r="H200" s="0" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>ඞНа этот раз вы отправитесь в пространство-время 1877 года.
 Перед вами информация о местоположении.</t>
@@ -10600,7 +10600,7 @@
           <t>Background and Location</t>
         </is>
       </c>
-      <c r="H201" s="0" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>ඞПредыстория и местоположение</t>
         </is>
@@ -10671,7 +10671,7 @@
 In just six years, the local economy has grown larger than before.</t>
         </is>
       </c>
-      <c r="H202" s="0" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#DC143C&gt;"Кливленд"&lt;/color&gt;
 Шесть лет назад в Кливленде произошел редкий пожар.
@@ -10738,7 +10738,7 @@
 He is widely praised for his personal culture and competence, but appears to have clashed with local businessmen.</t>
         </is>
       </c>
-      <c r="H203" s="0" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>ඞ"Церковь Святой Миртл"
 Церковь, которую посещают местные жители.
@@ -10789,7 +10789,7 @@
 He will be your historical associated person.</t>
         </is>
       </c>
-      <c r="H204" s="0" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>ඞЕсть человек, который может позволить вам принять участие в этом историческом событии.
 Он будет вашим историческим партнером.</t>
@@ -10832,7 +10832,7 @@
           <t>Sherman's commission</t>
         </is>
       </c>
-      <c r="H205" s="0" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>ඞКомиссия Шермана</t>
         </is>
@@ -10886,7 +10886,7 @@
 Sherman has made a fortune in the construction business after the disaster. You know he has a very lovely daughter who is the apple of his eye, but it seems like she's been in bad shape lately...</t>
         </is>
       </c>
-      <c r="H206" s="0" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>ඞБогатый торговец Шерман попросил дворецкого найти вас.
 Он хочет, чтобы вы немедленно отправились в Сент-Миртл, и у него есть для вас срочное поручение.
@@ -10960,7 +10960,7 @@
 You must merge with the identity of your associate to avoid personality dissolution.</t>
         </is>
       </c>
-      <c r="H207" s="0" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, моя сила защитит тебя от настоящей смерти. 
 Но ты все равно испытаешь смертельную боль.
@@ -11007,7 +11007,7 @@
           <t>Ok, I got it</t>
         </is>
       </c>
-      <c r="H208" s="0" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>ඞЛадно, я понял</t>
         </is>
@@ -11049,7 +11049,7 @@
           <t>Yog-Sothoth</t>
         </is>
       </c>
-      <c r="H209" s="0" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>Йог-Сотот</t>
         </is>
@@ -11091,7 +11091,7 @@
           <t>Aforgomon</t>
         </is>
       </c>
-      <c r="H210" s="0" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>Афоргомон</t>
         </is>
@@ -11133,7 +11133,7 @@
           <t>O Portão</t>
         </is>
       </c>
-      <c r="H211" s="0" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>Врата</t>
         </is>
@@ -11175,7 +11175,7 @@
           <t>No module is selected, do you want to go to select?</t>
         </is>
       </c>
-      <c r="H212" s="0" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>ඞНи один модуль не выбран, вы хотите перейти к выбору?</t>
         </is>
@@ -11217,7 +11217,7 @@
           <t>Confirmar</t>
         </is>
       </c>
-      <c r="H213" s="0" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>ඞПодтверждать</t>
         </is>
@@ -11259,7 +11259,7 @@
           <t>Cancelar</t>
         </is>
       </c>
-      <c r="H214" s="0" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>ඞОтмена</t>
         </is>
@@ -11301,7 +11301,7 @@
           <t>Começar Viajem no Tempo!</t>
         </is>
       </c>
-      <c r="H215" s="0" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>Начать путешествие в пространстве-времени!</t>
         </is>
@@ -11343,7 +11343,7 @@
           <t>View black line</t>
         </is>
       </c>
-      <c r="H216" s="0" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>ඞПросмотр черной линии</t>
         </is>
@@ -11391,7 +11391,7 @@
 They are timelines that cannot be integrated into the correct history</t>
         </is>
       </c>
-      <c r="H217" s="0" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>ඞБольшое количество черных линий, которые продолжают ползти снизу вверх.
 Это временные линии, которые невозможно интегрировать в правильную историю</t>
@@ -11439,7 +11439,7 @@
 Be sure to let these wrong timelines right and fit into the new era</t>
         </is>
       </c>
-      <c r="H218" s="0" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>ඞ…
 Убедитесь, что эти неправильные временные рамки исправлены и вписываются в новую эру.</t>
@@ -11488,7 +11488,7 @@
 Sothoth is desperately gathering their power into your body, to prevent your body from dissipating.</t>
         </is>
       </c>
-      <c r="H219" s="0" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>ඞЧасть вашего тела была поглощена реальностью, а другая часть не смогла объединиться из-за чрезмерного использования силы.
 Сототы отчаянно собирают свою силу в вашем теле, чтобы не дать вашему телу рассеяться.</t>
@@ -11537,7 +11537,7 @@
 I make you… consume your power again…</t>
         </is>
       </c>
-      <c r="H220" s="0" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>ඞИзвините… Сотот.
 Я заставляю тебя...… используй свою силу снова…</t>
@@ -11592,7 +11592,7 @@
 But I know what you have done is not limited to emotional actions.</t>
         </is>
       </c>
-      <c r="H221" s="0" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>ඞСтар Ки, ты можешь сказать мне, почему ты это сделала?
 Возможно, я не способен общаться с людьми и испытывать сильные эмоции, как ты.
@@ -11660,7 +11660,7 @@
 I know this is the reason.</t>
         </is>
       </c>
-      <c r="H222" s="0" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>ඞЧто ж… На это есть две основные причины.
 Одна из них - будущее, которое я однажды видел.
@@ -11706,7 +11706,7 @@
           <t>Then what's the second reason?</t>
         </is>
       </c>
-      <c r="H223" s="0" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>ඞТогда в чем же вторая причина?</t>
         </is>
@@ -11772,7 +11772,7 @@
 Maybe this is my weakness…</t>
         </is>
       </c>
-      <c r="H224" s="0" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>ඞЗа обещание…
 Хотя я и не они, но они - это я.
@@ -11830,7 +11830,7 @@
 Your emotion is not a defect, it's just something that makes you different from us.</t>
         </is>
       </c>
-      <c r="H225" s="0" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t>ඞСтар Ки, ты - воплощение моей воли.
 Все, что ты сделала, это попрала мою волю.
@@ -11874,7 +11874,7 @@
           <t>Thank you, Sothoth…</t>
         </is>
       </c>
-      <c r="H226" s="0" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>ඞСпасибо тебе, Сотот…</t>
         </is>
@@ -11918,7 +11918,7 @@
           <t>Sothoth used his power to restore your shattered body to perfection</t>
         </is>
       </c>
-      <c r="H227" s="0" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t>ඞСотот использовал свою силу, чтобы довести твое разбитое тело до совершенства</t>
         </is>
@@ -11973,7 +11973,7 @@
 Não poderia ser apenas para ridicularizar o passado e acrescentar mais dificuldades para as gerações posteriores da história.</t>
         </is>
       </c>
-      <c r="H228" s="0" t="inlineStr">
+      <c r="H228" t="inlineStr">
         <is>
           <t>ඞКакой ужасный опыт, мое восприятие изменилось неосознанно…
 Кризис пространства и времени был, наконец, разрешен Ими… С какой стати…
@@ -12023,7 +12023,7 @@
 A consciência de Sothoth passou por uma separação, isso também poderia estar relacionado a Ela...</t>
         </is>
       </c>
-      <c r="H229" s="0" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>ඞВ каком количестве пространства и времени в пределах этой беспорядочной временной линии они заронили семена хаоса…
 Разделение сознания Сотота, может ли это быть как-то связано с Ними…</t>
@@ -12066,7 +12066,7 @@
           <t>Preciso descobrir a verdade!</t>
         </is>
       </c>
-      <c r="H230" s="0" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t>ඞЯ должен узнать правду!</t>
         </is>
@@ -12108,7 +12108,7 @@
           <t>Voltar Para o Espaço-Tempo</t>
         </is>
       </c>
-      <c r="H231" s="0" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>ඞВернемся к пространству-времени</t>
         </is>
@@ -12150,7 +12150,7 @@
           <t>Desistir da viagem</t>
         </is>
       </c>
-      <c r="H232" s="0" t="inlineStr">
+      <c r="H232" t="inlineStr">
         <is>
           <t>ඞОткажись от поездки</t>
         </is>
@@ -12192,7 +12192,7 @@
           <t>Seleção de módulo</t>
         </is>
       </c>
-      <c r="H233" s="0" t="inlineStr">
+      <c r="H233" t="inlineStr">
         <is>
           <t>ඞВыбор модуля</t>
         </is>
@@ -12234,7 +12234,7 @@
           <t>Entrar no Tutorial</t>
         </is>
       </c>
-      <c r="H234" s="0" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>ඞПросмотреть обучение</t>
         </is>
@@ -12272,7 +12272,7 @@
           <t>众创房间</t>
         </is>
       </c>
-      <c r="H235" s="0" t="inlineStr">
+      <c r="H235" t="inlineStr">
         <is>
           <t>ඞОсвободить место</t>
         </is>
@@ -12314,7 +12314,7 @@
           <t>Choose a Companion</t>
         </is>
       </c>
-      <c r="H236" s="0" t="inlineStr">
+      <c r="H236" t="inlineStr">
         <is>
           <t>ඞВыбери себе компаньона</t>
         </is>
@@ -12356,7 +12356,7 @@
           <t>Módulos Personalizados</t>
         </is>
       </c>
-      <c r="H237" s="0" t="inlineStr">
+      <c r="H237" t="inlineStr">
         <is>
           <t>ඞПользовательский модуль</t>
         </is>
@@ -12416,7 +12416,7 @@
 What a bad character…</t>
         </is>
       </c>
-      <c r="H238" s="0" t="inlineStr">
+      <c r="H238" t="inlineStr">
         <is>
           <t>ඞДуши, которые Афоргомон поглотил раньше, все здесь.
 Они не собираются восстанавливать нарушенную временную линию.
@@ -12461,7 +12461,7 @@
           <t>The partner extraction function has not been opened yet</t>
         </is>
       </c>
-      <c r="H239" s="0" t="inlineStr">
+      <c r="H239" t="inlineStr">
         <is>
           <t>ඞФункция поиска партнеров еще не была открыта.</t>
         </is>
@@ -12503,7 +12503,7 @@
           <t>View the gashapon machine</t>
         </is>
       </c>
-      <c r="H240" s="0" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>ඞПосмотрите на машину для приготовления гашапона</t>
         </is>
@@ -12545,7 +12545,7 @@
           <t>Conversar com Eles</t>
         </is>
       </c>
-      <c r="H241" s="0" t="inlineStr">
+      <c r="H241" t="inlineStr">
         <is>
           <t>ඞПримирись с ними</t>
         </is>
@@ -12587,7 +12587,7 @@
           <t>Livros Obtidos</t>
         </is>
       </c>
-      <c r="H242" s="0" t="inlineStr">
+      <c r="H242" t="inlineStr">
         <is>
           <t>ඞПолученные книги</t>
         </is>
@@ -12629,7 +12629,7 @@
           <t>Module books obtained</t>
         </is>
       </c>
-      <c r="H243" s="0" t="inlineStr">
+      <c r="H243" t="inlineStr">
         <is>
           <t>ඞПолучены модульные книги</t>
         </is>
@@ -12671,7 +12671,7 @@
           <t>O caminho para o Portão está aberto, vá e explore</t>
         </is>
       </c>
-      <c r="H244" s="0" t="inlineStr">
+      <c r="H244" t="inlineStr">
         <is>
           <t>ඞДорога к воротам открыта, идите и исследуйте</t>
         </is>
@@ -12713,7 +12713,7 @@
           <t>Ir Agora</t>
         </is>
       </c>
-      <c r="H245" s="0" t="inlineStr">
+      <c r="H245" t="inlineStr">
         <is>
           <t>ඞУходи сейчас же</t>
         </is>
@@ -12755,7 +12755,7 @@
           <t>Get ready again</t>
         </is>
       </c>
-      <c r="H246" s="0" t="inlineStr">
+      <c r="H246" t="inlineStr">
         <is>
           <t>ඞБудьте готовы снова</t>
         </is>
@@ -12803,7 +12803,7 @@
 À sua frente há informações sobre o local.</t>
         </is>
       </c>
-      <c r="H247" s="0" t="inlineStr">
+      <c r="H247" t="inlineStr">
         <is>
           <t>ඞНа этот раз вы отправитесь в пространство-время 1877 года
 Перед вами информация о пункте назначения</t>
@@ -12846,7 +12846,7 @@
           <t>Cidade de Cleveland</t>
         </is>
       </c>
-      <c r="H248" s="0" t="inlineStr">
+      <c r="H248" t="inlineStr">
         <is>
           <t>ඞГород Кливленд</t>
         </is>
@@ -12894,7 +12894,7 @@
 You can try to get it during the trip</t>
         </is>
       </c>
-      <c r="H249" s="0" t="inlineStr">
+      <c r="H249" t="inlineStr">
         <is>
           <t>ඞКроме того, я чувствую, что в этом месте есть предметы, которые влияют на направление истории
 Вы можете попробовать приобрести их во время поездки</t>
@@ -12937,7 +12937,7 @@
           <t>Saint Michael's Church</t>
         </is>
       </c>
-      <c r="H250" s="0" t="inlineStr">
+      <c r="H250" t="inlineStr">
         <is>
           <t>ඞЦерковь Святого Михаила</t>
         </is>
@@ -12994,7 +12994,7 @@
 He has a very cute daughter, who is regarded as the jewel in his palm, but it seems that she has always been in bad health…</t>
         </is>
       </c>
-      <c r="H251" s="0" t="inlineStr">
+      <c r="H251" t="inlineStr">
         <is>
           <t>ඞБогатый бизнесмен Шерман попросил своего дворецкого найти вас
 Надеюсь, вы немедленно отправитесь в "Церковь Святого Михаила", у вас есть очень срочная просьба, которую вам нужно решить
@@ -13069,7 +13069,7 @@
 Você deve se fundir com a identidade de seu associado para evitar a dissolução de personalidade.</t>
         </is>
       </c>
-      <c r="H252" s="0" t="inlineStr">
+      <c r="H252" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, моя сила защитит тебя и позволит избежать настоящей смерти
 Но ты все равно испытаешь смертельную боль
@@ -13116,7 +13116,7 @@
           <t>Nenhum módulo está selecionado no momento. Ir?</t>
         </is>
       </c>
-      <c r="H253" s="0" t="inlineStr">
+      <c r="H253" t="inlineStr">
         <is>
           <t>ඞВ данный момент ни один из модулей не выбран, вы хотите перейти?</t>
         </is>
@@ -13158,7 +13158,7 @@
           <t>Flip through the books</t>
         </is>
       </c>
-      <c r="H254" s="0" t="inlineStr">
+      <c r="H254" t="inlineStr">
         <is>
           <t>ඞПролистайте книги</t>
         </is>
@@ -13206,7 +13206,7 @@
 There are many books around the page</t>
         </is>
       </c>
-      <c r="H255" s="0" t="inlineStr">
+      <c r="H255" t="inlineStr">
         <is>
           <t>ඞНа этой книжной полке вы найдете страницу со списком, заполненным различными названиями
 На странице много книг</t>
@@ -13249,7 +13249,7 @@
           <t>Emoções expressas na arte, que Sothoth adora</t>
         </is>
       </c>
-      <c r="H256" s="0" t="inlineStr">
+      <c r="H256" t="inlineStr">
         <is>
           <t>ඞЭмоции, выраженные в искусстве, которым восхищается Сотот</t>
         </is>
@@ -13291,7 +13291,7 @@
           <t>Trocar Música</t>
         </is>
       </c>
-      <c r="H257" s="0" t="inlineStr">
+      <c r="H257" t="inlineStr">
         <is>
           <t>Переключить музыку</t>
         </is>
@@ -13333,7 +13333,7 @@
           <t>You see food stuff you've never seen in it</t>
         </is>
       </c>
-      <c r="H258" s="0" t="inlineStr">
+      <c r="H258" t="inlineStr">
         <is>
           <t>ඞВы видите в нем еду, которую никогда раньше не видели</t>
         </is>
@@ -13387,7 +13387,7 @@
 Sothoth doesn't like the library being cluttered</t>
         </is>
       </c>
-      <c r="H259" s="0" t="inlineStr">
+      <c r="H259" t="inlineStr">
         <is>
           <t>ඞНаверное, это еда, которую Афоргомон принес из будущего
 Мне лучше прибраться здесь
@@ -13449,7 +13449,7 @@
 Really bad character!</t>
         </is>
       </c>
-      <c r="H260" s="0" t="inlineStr">
+      <c r="H260" t="inlineStr">
         <is>
           <t>ඞДуши, которые Афрогомон поглотил раньше
 Они не восстановят нарушенную временную линию
@@ -13494,7 +13494,7 @@
           <t>Lookout</t>
         </is>
       </c>
-      <c r="H261" s="0" t="inlineStr">
+      <c r="H261" t="inlineStr">
         <is>
           <t>ඞНаблюдение</t>
         </is>
@@ -13542,7 +13542,7 @@
 The galaxies surround this place, looking up, the entire universe is like a film covering the dome</t>
         </is>
       </c>
-      <c r="H262" s="0" t="inlineStr">
+      <c r="H262" t="inlineStr">
         <is>
           <t>ඞСтена храма состоит из тысяч книг, каждая книга - это история в пространстве-времени
 Галактики окружают это место, если смотреть вверх, вся вселенная подобна пленке, покрывающей купол</t>
@@ -13585,7 +13585,7 @@
           <t>Clean up</t>
         </is>
       </c>
-      <c r="H263" s="0" t="inlineStr">
+      <c r="H263" t="inlineStr">
         <is>
           <t>ඞУбирать</t>
         </is>
@@ -13633,7 +13633,7 @@
 Writing on the strips will directly affect the historical trend of the present world</t>
         </is>
       </c>
-      <c r="H264" s="0" t="inlineStr">
+      <c r="H264" t="inlineStr">
         <is>
           <t>ඞИз-под лестницы торчит множество полосок белой бумаги
 Надписи на полосках непосредственно повлияют на историческую тенденцию современного мира</t>
@@ -13682,7 +13682,7 @@
 para lembrá-lo da regra de tempo mais importante</t>
         </is>
       </c>
-      <c r="H265" s="0" t="inlineStr">
+      <c r="H265" t="inlineStr">
         <is>
           <t>ඞНа фоторамке нарисована голубая бабочка
 , которая напоминает вам о самом важном правиле времени</t>
@@ -13733,7 +13733,7 @@
 Mudanças não intencionais podem causar efeitos caóticos irreversíveis.</t>
         </is>
       </c>
-      <c r="H266" s="0" t="inlineStr">
+      <c r="H266" t="inlineStr">
         <is>
           <t>ඞСледите за первоначальными изменениями</t>
         </is>
@@ -13775,7 +13775,7 @@
           <t>View Snack Bags</t>
         </is>
       </c>
-      <c r="H267" s="0" t="inlineStr">
+      <c r="H267" t="inlineStr">
         <is>
           <t>ඞПросмотр пакетов с закусками</t>
         </is>
@@ -13823,7 +13823,7 @@
 Para lembrá-lo da regra de tempo mais importante-</t>
         </is>
       </c>
-      <c r="H268" s="0" t="inlineStr">
+      <c r="H268" t="inlineStr">
         <is>
           <t>ඞНа фоторамке нарисована голубая бабочка
 Чтобы напомнить вам о самом важном правиле определения времени——</t>
@@ -13866,7 +13866,7 @@
           <t>Expressando emoções por meio da arte, Sothoth vai adorar isso</t>
         </is>
       </c>
-      <c r="H269" s="0" t="inlineStr">
+      <c r="H269" t="inlineStr">
         <is>
           <t>ඞВыражая эмоции в искусстве, Сототу это понравится</t>
         </is>
@@ -13926,7 +13926,7 @@
 Oh, what a bad guy they are</t>
         </is>
       </c>
-      <c r="H270" s="0" t="inlineStr">
+      <c r="H270" t="inlineStr">
         <is>
           <t>ඞДуши, которые Афоргомон поглотил раньше, все здесь
 Они не собираются восстанавливать нарушенную временную линию самостоятельно
@@ -13971,7 +13971,7 @@
           <t>View other book</t>
         </is>
       </c>
-      <c r="H271" s="0" t="inlineStr">
+      <c r="H271" t="inlineStr">
         <is>
           <t>ඞПосмотреть другую книгу</t>
         </is>
@@ -14019,7 +14019,7 @@
 "When you decide on the book of space-time, I will open The Gate for you"</t>
         </is>
       </c>
-      <c r="H272" s="0" t="inlineStr">
+      <c r="H272" t="inlineStr">
         <is>
           <t>ඞ"Библиотека подключена к Вратам, и, активировав Врата, вы сможете перейти в любое пространство-время"
 "Когда вы выберете книгу о пространстве-времени, я открою вам Врата".</t>
@@ -14068,7 +14068,7 @@
 I will answer any questions for you</t>
         </is>
       </c>
-      <c r="H273" s="0" t="inlineStr">
+      <c r="H273" t="inlineStr">
         <is>
           <t>ඞКроме того, вы всегда можете обратиться ко мне, если возникнут какие-либо другие вопросы 
 Я отвечу на любые ваши вопросы</t>
@@ -14123,7 +14123,7 @@
 What's that?</t>
         </is>
       </c>
-      <c r="H274" s="0" t="inlineStr">
+      <c r="H274" t="inlineStr">
         <is>
           <t>ඞЯ понимаю, Сотот… Но 
 … 
@@ -14173,7 +14173,7 @@
 They put their hand on their forehead</t>
         </is>
       </c>
-      <c r="H275" s="0" t="inlineStr">
+      <c r="H275" t="inlineStr">
         <is>
           <t>ඞУ Сотота беспомощное выражение лица, которое редко можно увидеть
 Он прикладывает руку ко лбу</t>
@@ -14222,7 +14222,7 @@
 "You can be in here to create the connection person Later in the trip, you will get the same identity, experience with it"</t>
         </is>
       </c>
-      <c r="H276" s="0" t="inlineStr">
+      <c r="H276" t="inlineStr">
         <is>
           <t>ඞ"Вам нужен разумный собеседник, чтобы вмешаться в историю, иначе вы не будете одиноки в этом мире" 
 "Вы можете присутствовать здесь, чтобы создать собеседника позже в ходе поездки, вы получите ту же идентичность, опыт общения с ним".</t>
@@ -14277,7 +14277,7 @@
 "Kind of existence" was unceremoniously take in there, his hands is playing a strange handle with button. There are strange and messy objects around</t>
         </is>
       </c>
-      <c r="H277" s="0" t="inlineStr">
+      <c r="H277" t="inlineStr">
         <is>
           <t>ඞЕсли посмотреть в другую сторону, справа от библиотеки можно увидеть сцену, которая совершенно не соответствует этому месту.
 Огромный железный ящик мерцает и меняется в зависимости от освещения, а на многочисленных стеклянных пластинах рядом с ним постоянно появляются странные картинки 
@@ -14351,7 +14351,7 @@
 I no longer interfere with their freedom either</t>
         </is>
       </c>
-      <c r="H278" s="0" t="inlineStr">
+      <c r="H278" t="inlineStr">
         <is>
           <t>ඞПосле того, как я проснулся, тело Афоргомона погрузилось в глубокий сон
 Но, несмотря на это, их сознание всегда неохотно сливается со мной
@@ -14422,7 +14422,7 @@
 To influence history, and then will bring the details of the "change" back here, those will become the power to fill space-time</t>
         </is>
       </c>
-      <c r="H279" s="0" t="inlineStr">
+      <c r="H279" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, искривленные временные линии все еще существуют.
 Новые открытые пространства-времени все еще хрупки 
@@ -14468,7 +14468,7 @@
           <t>"These are the books related to space-times, you can read the information in the books to decide which space-time to go to"</t>
         </is>
       </c>
-      <c r="H280" s="0" t="inlineStr">
+      <c r="H280" t="inlineStr">
         <is>
           <t>ඞ"Это книги, связанные с пространством-временем, вы можете прочитать информацию в книгах, чтобы решить, в какое пространство-время отправиться".</t>
         </is>
@@ -14510,7 +14510,7 @@
           <t>Hope they don't bother again</t>
         </is>
       </c>
-      <c r="H281" s="0" t="inlineStr">
+      <c r="H281" t="inlineStr">
         <is>
           <t>ඞНадеюсь, они больше не побеспокоят</t>
         </is>
@@ -14552,7 +14552,7 @@
           <t>Are these all your things?</t>
         </is>
       </c>
-      <c r="H282" s="0" t="inlineStr">
+      <c r="H282" t="inlineStr">
         <is>
           <t>ඞЭто все твои вещи?</t>
         </is>
@@ -14594,7 +14594,7 @@
           <t>Pular?</t>
         </is>
       </c>
-      <c r="H283" s="0" t="inlineStr">
+      <c r="H283" t="inlineStr">
         <is>
           <t>ඞПропустить эпизод?</t>
         </is>
@@ -14636,7 +14636,7 @@
           <t>Pular?</t>
         </is>
       </c>
-      <c r="H284" s="0" t="inlineStr">
+      <c r="H284" t="inlineStr">
         <is>
           <t>ඞПропустить эпизод?</t>
         </is>
@@ -14678,7 +14678,7 @@
           <t>Selecionar módulo</t>
         </is>
       </c>
-      <c r="H285" s="0" t="inlineStr">
+      <c r="H285" t="inlineStr">
         <is>
           <t>ඞВыберите модуль</t>
         </is>
@@ -14720,7 +14720,7 @@
           <t>Criar papel</t>
         </is>
       </c>
-      <c r="H286" s="0" t="inlineStr">
+      <c r="H286" t="inlineStr">
         <is>
           <t>ඞСоздать роль</t>
         </is>
@@ -14762,7 +14762,7 @@
           <t>Criar um módulo</t>
         </is>
       </c>
-      <c r="H287" s="0" t="inlineStr">
+      <c r="H287" t="inlineStr">
         <is>
           <t>ඞСоздайте модуль</t>
         </is>
@@ -14804,7 +14804,7 @@
           <t>The record machine</t>
         </is>
       </c>
-      <c r="H288" s="0" t="inlineStr">
+      <c r="H288" t="inlineStr">
         <is>
           <t>ඞЗаписывающая машина</t>
         </is>
@@ -14846,7 +14846,7 @@
           <t>Twisted egg machine</t>
         </is>
       </c>
-      <c r="H289" s="0" t="inlineStr">
+      <c r="H289" t="inlineStr">
         <is>
           <t>ඞМашина для скручивания яиц</t>
         </is>
@@ -14888,7 +14888,7 @@
           <t>Lookout Point</t>
         </is>
       </c>
-      <c r="H290" s="0" t="inlineStr">
+      <c r="H290" t="inlineStr">
         <is>
           <t>ඞНаблюдательный пункт</t>
         </is>
@@ -14930,7 +14930,7 @@
           <t>Falar com Afogomorn</t>
         </is>
       </c>
-      <c r="H291" s="0" t="inlineStr">
+      <c r="H291" t="inlineStr">
         <is>
           <t>Поговори с Афоргомон</t>
         </is>
@@ -14972,7 +14972,7 @@
           <t>Selecionar módulo</t>
         </is>
       </c>
-      <c r="H292" s="0" t="inlineStr">
+      <c r="H292" t="inlineStr">
         <is>
           <t>ඞВыберите модуль</t>
         </is>
@@ -15014,7 +15014,7 @@
           <t>Criar módulo</t>
         </is>
       </c>
-      <c r="H293" s="0" t="inlineStr">
+      <c r="H293" t="inlineStr">
         <is>
           <t>ඞСоздать модуль</t>
         </is>
@@ -15056,7 +15056,7 @@
           <t>Ver a Lista</t>
         </is>
       </c>
-      <c r="H294" s="0" t="inlineStr">
+      <c r="H294" t="inlineStr">
         <is>
           <t>ඞПросмотреть список</t>
         </is>
@@ -15098,7 +15098,7 @@
           <t>Ir Para O Portão</t>
         </is>
       </c>
-      <c r="H295" s="0" t="inlineStr">
+      <c r="H295" t="inlineStr">
         <is>
           <t>ඞИдите к Воротам</t>
         </is>
@@ -15140,7 +15140,7 @@
           <t>Criar Investigador</t>
         </is>
       </c>
-      <c r="H296" s="0" t="inlineStr">
+      <c r="H296" t="inlineStr">
         <is>
           <t>ඞСоздать исследователя</t>
         </is>
@@ -15182,7 +15182,7 @@
           <t>Interlúdio</t>
         </is>
       </c>
-      <c r="H297" s="0" t="inlineStr">
+      <c r="H297" t="inlineStr">
         <is>
           <t>ඞИстория-интерлюдия</t>
         </is>
@@ -15224,7 +15224,7 @@
           <t>Falar com Sothoth</t>
         </is>
       </c>
-      <c r="H298" s="0" t="inlineStr">
+      <c r="H298" t="inlineStr">
         <is>
           <t>ඞПоговори с Сототом</t>
         </is>
@@ -15266,7 +15266,7 @@
           <t>Module Settlement</t>
         </is>
       </c>
-      <c r="H299" s="0" t="inlineStr">
+      <c r="H299" t="inlineStr">
         <is>
           <t>ඞРасчет модуля</t>
         </is>
@@ -15310,7 +15310,7 @@
 </t>
         </is>
       </c>
-      <c r="H300" s="0" t="inlineStr">
+      <c r="H300" t="inlineStr">
         <is>
           <t>ඞОна делает вид, что не слышит тебя, и смотрит на тебя жалкими глазами.</t>
         </is>
@@ -15354,7 +15354,7 @@
 </t>
         </is>
       </c>
-      <c r="H301" s="0" t="inlineStr">
+      <c r="H301" t="inlineStr">
         <is>
           <t>ඞДруг мой, если ты не хочешь, чтобы тебя выбросили в кювет, тебе лучше не сомневаться в цене, которую мы предложили.</t>
         </is>
@@ -15396,7 +15396,7 @@
           <t>Take a break… What should I do?</t>
         </is>
       </c>
-      <c r="H302" s="0" t="inlineStr">
+      <c r="H302" t="inlineStr">
         <is>
           <t>ඞСделать перерыв… Что мне следует делать?</t>
         </is>
@@ -15438,7 +15438,7 @@
           <t>Waiting…</t>
         </is>
       </c>
-      <c r="H303" s="0" t="inlineStr">
+      <c r="H303" t="inlineStr">
         <is>
           <t>ඞОжидание…</t>
         </is>
@@ -15480,7 +15480,7 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H304" s="0" t="inlineStr">
+      <c r="H304" t="inlineStr">
         <is>
           <t>ඞХорошо</t>
         </is>
@@ -15525,7 +15525,7 @@
 | You stand up unsteadily.</t>
         </is>
       </c>
-      <c r="H305" s="0" t="inlineStr">
+      <c r="H305" t="inlineStr">
         <is>
           <t>ඞСотот постепенно восстанавливает ваше утраченное тело.
 | Вы неуверенно встаете.</t>
@@ -15580,7 +15580,7 @@
 If all goes well, I'll be back soon.</t>
         </is>
       </c>
-      <c r="H306" s="0" t="inlineStr">
+      <c r="H306" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, тебе не нужно торопиться в следующее путешествие во времени
 Мне нужно выбраться отсюда на некоторое время.
@@ -15630,7 +15630,7 @@
 So you don't ask too much.</t>
         </is>
       </c>
-      <c r="H307" s="0" t="inlineStr">
+      <c r="H307" t="inlineStr">
         <is>
           <t>ඞСотот не говорит вам причину, и вы знаете, что есть какая-то причина, которую нужно скрывать.
 Поэтому вы не спрашиваете слишком многого.</t>
@@ -15675,7 +15675,7 @@
 </t>
         </is>
       </c>
-      <c r="H308" s="0" t="inlineStr">
+      <c r="H308" t="inlineStr">
         <is>
           <t>ඞОни вышли и скрылись за дверью.</t>
         </is>

--- a/GameModules/ZHUSHENKONGJIAN/Localization_ZHUSHENKONGJIAN.xlsx
+++ b/GameModules/ZHUSHENKONGJIAN/Localization_ZHUSHENKONGJIAN.xlsx
@@ -506,7 +506,7 @@
           <t>Português-Chirriro</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>Русский</t>
         </is>
@@ -548,7 +548,7 @@
           <t>Sobre "o passado"</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>ඞО “прошлом”</t>
         </is>
@@ -608,7 +608,7 @@
 Those old rulers are the culprits that cause the chaos of the timeline</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="0" t="inlineStr">
         <is>
           <t>ඞВселенная в прошлом называется "Старость", и это также изначальная вселенная этого мира.
 В ней существуют древние правители различных форм и могущественного влияния.
@@ -653,7 +653,7 @@
           <t>Sobre "Agora"</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>ඞО “Настоящем”</t>
         </is>
@@ -707,7 +707,7 @@
 In order to maintain the new universe, I need a lot of space-time power</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>ඞЧтобы избежать конца пространства-времени, я создал новую изначальную вселенную.
 Однако временная линия в этой новой вселенной все еще переплетена с прошлым пространством-временем.
@@ -751,7 +751,7 @@
           <t>Sobre minha missão</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>ඞО моей миссии</t>
         </is>
@@ -804,7 +804,7 @@
 But remember, any small space-time interference will cause unknown changes to the world line</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, чтобы это место работало.
 Мне нужно, чтобы ты путешествовал в пространстве-времени, чтобы собрать больше пространственно-временной энергии.
@@ -848,7 +848,7 @@
           <t>Sobre Sothoth</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>ඞО Сототе</t>
         </is>
@@ -892,7 +892,7 @@
           <t>.....Não faço ideia!</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>ඞ………………………
 Не знаю!</t>
@@ -935,7 +935,7 @@
           <t>Inf. da Comissão</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>ඞИнформация о комиссии</t>
         </is>
@@ -977,7 +977,7 @@
           <t>Registros</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>ඞЗаписи</t>
         </is>
@@ -1019,7 +1019,7 @@
           <t>Exploração</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>ඞИсследование5</t>
         </is>
@@ -1061,7 +1061,7 @@
           <t>Inimigos Encontrados</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>ඞВстречные Враги</t>
         </is>
@@ -1103,7 +1103,7 @@
           <t>Templo do Espaço-Tempo</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="0" t="inlineStr">
         <is>
           <t>Храм пространства-времени</t>
         </is>
@@ -1145,7 +1145,7 @@
           <t>Ver as páginas em branco</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>ඞПросмотр пустых страниц</t>
         </is>
@@ -1193,7 +1193,7 @@
 Every word written on them can become actual history</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите множество белых страниц, свисающих с неба.
 Каждое слово, написанное на них, может стать реальной историей.</t>
@@ -1236,7 +1236,7 @@
           <t>Ver foto</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотреть фотографию</t>
         </is>
@@ -1284,7 +1284,7 @@
 Lembrando você da regra mais importante do tempo-</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="0" t="inlineStr">
         <is>
           <t>На фоторамке нарисована голубая бабочка
 Чтобы напомнить вам о самом важном правиле путешествия в пространство-времени——</t>
@@ -1339,7 +1339,7 @@
 Qualquer pequena alteração pode causar um "efeito de caos" irreversível.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="0" t="inlineStr">
         <is>
           <t>Следи за первоначальными изменениями
 Любое незначительное изменение может вызвать необратимый "ЭФФЕКТ ХАОСА".</t>
@@ -1383,7 +1383,7 @@
           <t>Posso usar os livros para determinar o espaço-tempo que irei a seguir.</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" s="0" t="inlineStr">
         <is>
           <t>ඞВ этих книгах я могу найти в какое пространство-время я отправиться дальше.</t>
         </is>
@@ -1431,7 +1431,7 @@
 É melhor criar um associado antes da viagem no tempo.</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="0" t="inlineStr">
         <is>
           <t>ඞУ меня пока нет сыщиков.
 Лучше создать создать одного перед поездкой в пространство-время.</t>
@@ -1474,7 +1474,7 @@
           <t>Criar um associado</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" s="0" t="inlineStr">
         <is>
           <t>ඞЧтобы создать ассоциированного пользователя</t>
         </is>
@@ -1517,7 +1517,7 @@
           <t>Continuar Vendo os Livros</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" s="0" t="inlineStr">
         <is>
           <t>ඞПродолжайте просматривать книги</t>
         </is>
@@ -1559,7 +1559,7 @@
           <t>Escolher Tempo Para Viajar</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" s="0" t="inlineStr">
         <is>
           <t>Выбор модуля</t>
         </is>
@@ -1601,7 +1601,7 @@
           <t>Entrar no Tutorial</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" s="0" t="inlineStr">
         <is>
           <t>Просмотреть обучение</t>
         </is>
@@ -1643,7 +1643,7 @@
           <t>Ver a Livraria de Papéis</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" s="0" t="inlineStr">
         <is>
           <t>Просмотр библиотеки сыщиков</t>
         </is>
@@ -1685,7 +1685,7 @@
           <t>Monumento de Criação de Fãs</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" s="0" t="inlineStr">
         <is>
           <t>Памятник сообществу</t>
         </is>
@@ -1727,7 +1727,7 @@
           <t>Música Anterior</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" s="0" t="inlineStr">
         <is>
           <t>ඞПредыдущая песня</t>
         </is>
@@ -1769,7 +1769,7 @@
           <t>Música Seguinte</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" s="0" t="inlineStr">
         <is>
           <t>ඞСледующая песня</t>
         </is>
@@ -1811,7 +1811,7 @@
           <t>Trocar Música</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" s="0" t="inlineStr">
         <is>
           <t>Переключить музыку</t>
         </is>
@@ -1853,7 +1853,7 @@
           <t>Ver Toca-Discos</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" s="0" t="inlineStr">
         <is>
           <t>ඞПросмотр музыкального автомата</t>
         </is>
@@ -1895,7 +1895,7 @@
           <t>Arte que expressa emoções. É o deleite da Sothoth.</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" s="0" t="inlineStr">
         <is>
           <t>ඞИскусство, выражающее эмоции, доставляет удовольствие Сототу.</t>
         </is>
@@ -1943,7 +1943,7 @@
 This sense of familiarity makes you feel as though you have returned to your travels through time and space, while the screen of the machine in front of you flickers to life.</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" s="0" t="inlineStr">
         <is>
           <t>ඞВы чувствуете, как силы покидают ваше тело, и в вашем сознании начинают возникать образы из прошлого.
 Это знакомое ощущение заставляет вас почувствовать, что вы вернулись к своим путешествиям во времени и пространстве, в то время как экран устройства перед вами оживает.</t>
@@ -1986,7 +1986,7 @@
           <t>What on earth is this machine?</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" s="0" t="inlineStr">
         <is>
           <t>ඞЧто, черт возьми, это за машина?</t>
         </is>
@@ -2040,7 +2040,7 @@
 These are people you have seen before.</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" s="0" t="inlineStr">
         <is>
           <t>ඞКогда вы приближаетесь, на экране появляется черный вихрь, состоящий из бесчисленных песчинок.
 Когда вы приближаетесь, кажется, что эти песчинки оживают, превращаясь в разных людей.
@@ -2090,7 +2090,7 @@
 I never thought you would be able to activate this machine.</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" s="0" t="inlineStr">
         <is>
           <t>ඞКак неожиданно...
 Я никогда не думал, что вы сможете активировать эту машину.</t>
@@ -2133,7 +2133,7 @@
           <t>Aforgomon's gaze shifts to Sothoth, who is sitting in front of a desk. Sothoth merely lifts his head slightly, offering a smile, diving back into his sea of books.</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" s="0" t="inlineStr">
         <is>
           <t>ඞВзгляд Афоргомона перемещается на Сотота, который сидит за письменным столом. Сотот лишь слегка поднимает голову, улыбаясь, и снова погружается в свое море книг.</t>
         </is>
@@ -2182,7 +2182,7 @@
 Ah, your foolish expression tells me you don't understand its purpose yet.</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" s="0" t="inlineStr">
         <is>
           <t>ඞО чем думает Тавил?
 Ах, судя по твоему глупому выражению лица, ты еще не понимаешь его предназначения.</t>
@@ -2237,7 +2237,7 @@
 Why then is this temporal sand still preserved?</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" s="0" t="inlineStr">
         <is>
           <t>ඞЯ действительно не понимаю его назначения.
 Вы освободили все заключенные сознания.
@@ -2299,7 +2299,7 @@
 Why would They bother to restart time and space?</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не обязан отвечать на ваш вопрос.
 Возможно, вы захотите подумать об этом сами.
@@ -2356,7 +2356,7 @@
 So Sothoth could only deal with the end of the future by restarting time and space.</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" s="0" t="inlineStr">
         <is>
           <t>ඞРазве это не для того, чтобы справиться с приближением конца?
 Вы не смогли прийти к консенсусу, чтобы изменить исход будущего…
@@ -2455,7 +2455,7 @@
 Since you've activated this part of the temporal sand, I will gift it to you.</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" s="0" t="inlineStr">
         <is>
           <t>ඞТвоя мысль настолько наивна, что заставляет меня рассмеяться.
 Возможно, на тебя слишком сильно повлияло мышление смертных.
@@ -2506,7 +2506,7 @@
           <t>Afterward, Aforgomon casts a displeased glance towards Sothoth, saying—</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" s="0" t="inlineStr">
         <is>
           <t>ඞПосле этого Афоргомон бросает недовольный взгляд на Сотота и говорит—</t>
         </is>
@@ -2548,7 +2548,7 @@
           <t>Tawil, you should understand, you cannot always control everything.</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" s="0" t="inlineStr">
         <is>
           <t>ඞТавил, ты должен понимать, что ты не можешь всегда все контролировать.</t>
         </is>
@@ -2590,7 +2590,7 @@
           <t>Ver Parceiros</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H45" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотреть партнера</t>
         </is>
@@ -2644,7 +2644,7 @@
 Embora curioso, você sabe que é melhor não tocar nas coisas Dela se não quiser ter problemas.</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" s="0" t="inlineStr">
         <is>
           <t>Необычная машина стоит на видном месте рядом с книжной полкой, как бы заявляя о своем суверенитете над этим пространством.
 Несомненно, ее яркие цвета указывают на то, что это дело рук Афоргомона.
@@ -2688,7 +2688,7 @@
           <t>Ver Console de Jogos</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H47" s="0" t="inlineStr">
         <is>
           <t>Игровая консоль</t>
         </is>
@@ -2738,7 +2738,7 @@
 As galáxias circundantes cercam este lugar. Olhando em volta, o universo inteiro cobre a cúpula como uma película fina.</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" s="0" t="inlineStr">
         <is>
           <t>Первым бросается в глаза стены храма состоящие из тысяч книг, каждая из которых представляет собой историю определенного пространства-времени
 В воздухе кружат созвездия.
@@ -2782,7 +2782,7 @@
           <t>Ver o Céu</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" s="0" t="inlineStr">
         <is>
           <t>Посмотреть на небо</t>
         </is>
@@ -2824,7 +2824,7 @@
           <t>Ainda Não Disponível na Versão Atual</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" s="0" t="inlineStr">
         <is>
           <t>ඞПока недоступно в текущей версии</t>
         </is>
@@ -2866,7 +2866,7 @@
           <t>Write the fate of characters</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" s="0" t="inlineStr">
         <is>
           <t>ඞПишите судьбы персонажей</t>
         </is>
@@ -2914,7 +2914,7 @@
 É melhor criar um associado primeiro e depois reescrever um destino.</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" s="0" t="inlineStr">
         <is>
           <t>ඞУ меня пока нет никаких исторических ассоциаций.
 Лучше сначала создать связанного персонажа, а потом переписывать судьбу.</t>
@@ -2957,7 +2957,7 @@
           <t>Ver Primeira Prateleira</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" s="0" t="inlineStr">
         <is>
           <t>Осмотреть верхнюю полку</t>
         </is>
@@ -2999,7 +2999,7 @@
           <t>Ver Segunda Prateleira</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" s="0" t="inlineStr">
         <is>
           <t>Осмотреть вторую полку</t>
         </is>
@@ -3041,7 +3041,7 @@
           <t>Ver Terceira Prateleira</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" s="0" t="inlineStr">
         <is>
           <t>Осмотреть третью полку</t>
         </is>
@@ -3083,7 +3083,7 @@
           <t>Ver Quarta Prateleira</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" s="0" t="inlineStr">
         <is>
           <t>Осмотреть нижнюю полку</t>
         </is>
@@ -3125,7 +3125,7 @@
           <t>Muitos livros desconhecidos estão armazenados na estante esquerda.</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" s="0" t="inlineStr">
         <is>
           <t>В левом шкафу хранится много неизвестных книг</t>
         </is>
@@ -3167,7 +3167,7 @@
           <t>Muitos livros desconhecidos estão armazenados na estante direita.</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" s="0" t="inlineStr">
         <is>
           <t>В правом шкафу хранится много неизвестных книг</t>
         </is>
@@ -3209,7 +3209,7 @@
           <t>Conversar</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" s="0" t="inlineStr">
         <is>
           <t>Поговорить</t>
         </is>
@@ -3251,7 +3251,7 @@
           <t>Não me incomode!</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" s="0" t="inlineStr">
         <is>
           <t>Отстань!</t>
         </is>
@@ -3295,7 +3295,7 @@
 </t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" s="0" t="inlineStr">
         <is>
           <t>ඞПохоже, они в хорошем настроении.</t>
         </is>
@@ -3337,7 +3337,7 @@
           <t>Afogomorn! The disappearance of the associate, did you do that!</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" s="0" t="inlineStr">
         <is>
           <t>ඞАфоргомон! Исчезновение сотрудника, это вы сделали!</t>
         </is>
@@ -3412,7 +3412,7 @@
 Then no one will bother me anymore.</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" s="0" t="inlineStr">
         <is>
           <t>ඞСколько хлопот!
 Да, я сделал это!
@@ -3460,7 +3460,7 @@
           <t>Will I become a lunatic?!</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" s="0" t="inlineStr">
         <is>
           <t>ඞНеужели я стану сумасшедшим?!</t>
         </is>
@@ -3526,7 +3526,7 @@
 What would happen if a mortal's spirit was broken?</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" s="0" t="inlineStr">
         <is>
           <t>ඞРазве Тавил тебе не говорил?
 Ааааа,
@@ -3574,7 +3574,7 @@
 </t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" s="0" t="inlineStr">
         <is>
           <t>ඞЯ могу исцелить их разбитые сердца.</t>
         </is>
@@ -3652,7 +3652,7 @@
 Of course, I will have the power you collected.</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж, ты их не исправляешь.
 Ты их заменяешь.
@@ -3703,7 +3703,7 @@
 </t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" s="0" t="inlineStr">
         <is>
           <t>ඞПочему ты так на меня смотришь? 
 Это из-за тебя исчезли те люди.</t>
@@ -3746,7 +3746,7 @@
           <t>I… do I have any way to get them back?</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" s="0" t="inlineStr">
         <is>
           <t>ඞЯ... у меня есть какой-нибудь способ вернуть их?</t>
         </is>
@@ -3794,7 +3794,7 @@
 You want me to help you?</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" s="0" t="inlineStr">
         <is>
           <t>ඞА? Интересно~
 Ты хочешь, чтобы я тебе помог?</t>
@@ -3849,7 +3849,7 @@
 But I don't want them to be forgotten and disappear like this…</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" s="0" t="inlineStr">
         <is>
           <t>ඞДа, я не знал об этой ситуации раньше.
 Спасибо вам за помощь…
@@ -3895,7 +3895,7 @@
 </t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" s="0" t="inlineStr">
         <is>
           <t>ඞО, конечно.</t>
         </is>
@@ -3943,7 +3943,7 @@
 In this way, you can restore the person I have taken.</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" s="0" t="inlineStr">
         <is>
           <t>ඞПомоги мне собрать силу пространства и времени.
 Таким образом, ты сможешь вернуть человека, которого я забрал.</t>
@@ -3986,7 +3986,7 @@
           <t>Why do you want the power of space and time?</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" s="0" t="inlineStr">
         <is>
           <t>ඞЗачем вам нужна власть над пространством и временем?</t>
         </is>
@@ -4031,7 +4031,7 @@
 Do you think that you don't need materials to repair the broken container?!</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" s="0" t="inlineStr">
         <is>
           <t>ඞЭто забавно.
 Как вы думаете, не нужны ли материалы для ремонта сломанного контейнера?!</t>
@@ -4076,7 +4076,7 @@
 </t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H76" s="0" t="inlineStr">
         <is>
           <t>ඞЛадно, договорились.</t>
         </is>
@@ -4118,7 +4118,7 @@
           <t>Ver Lista de Desenvolvedores</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" s="0" t="inlineStr">
         <is>
           <t>Титры</t>
         </is>
@@ -4160,7 +4160,7 @@
           <t>Você encontra uma lista na estante cheia de vários nomes.</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H78" s="0" t="inlineStr">
         <is>
           <t>Вы находите на книжной полке страницу, заполненную различными именами.</t>
         </is>
@@ -4198,7 +4198,7 @@
           <t>先将无光之海的已</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" s="0" t="inlineStr">
         <is>
           <t>ඞМне нужно рассказать Сотосу о ситуации в неосвещенном море.</t>
         </is>
@@ -4241,7 +4241,7 @@
           <t>Devo ir contar a Sothoth sobre a situação do Mar Sem Sol.</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" s="0" t="inlineStr">
         <is>
           <t>ඞНужно пойти и рассказать Сотот о том что творится с Бессолнечным Морем.</t>
         </is>
@@ -4289,7 +4289,7 @@
 Mas está tudo bem para você?</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" s="0" t="inlineStr">
         <is>
           <t>ඞСотот, распространение хаотической временной линии в Бессолнечном Море прекратилось.
 С тобой точно ничего не случится?</t>
@@ -4344,7 +4344,7 @@
 Mas para apagar completamente todas as anormalidades, não posso fazer isso ainda.</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" s="0" t="inlineStr">
         <is>
           <t>ඞВсе в порядке, до тех пор пока не потребляется слишком много энергии пространства-времени. 
 Я еще могу поддерживать критическую точку.
@@ -4388,7 +4388,7 @@
           <t>Existe alguma coisa que eu possa ajudá-la?</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" s="0" t="inlineStr">
         <is>
           <t>ඞЧем я могу помочь?</t>
         </is>
@@ -4431,7 +4431,7 @@
           <t>Você vê Sothoth hesitar um pouco após suas palavras.</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H84" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите, что Сотот колеблется после ваших слов.</t>
         </is>
@@ -4492,7 +4492,7 @@
 E então, traga aquela pequena "mudança" de volta aqui, e isso se tornaria o poder de preencher o espaço e o tempo.</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H85" s="0" t="inlineStr">
         <is>
           <t>ඞНовое пространство все еще очень хрупкое, и для того, чтобы библиотека заработала…
 Звездный ключ, мне нужно, чтобы ты побывал во всех аномальных точках пространство-времени…
@@ -4537,7 +4537,7 @@
           <t>Eu entendo.</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H86" s="0" t="inlineStr">
         <is>
           <t>ඞЯ понимаю.</t>
         </is>
@@ -4597,7 +4597,7 @@
 Meu poder irá protegê-lo da morte real, mas você ainda enfrentará a dor da morte.</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H87" s="0" t="inlineStr">
         <is>
           <t>ඞТем не менее, Star Key… ты отправишься в хаотичное время истории. 
 Тебе нужно будет установить связь с людьми в том пространство-времени.
@@ -4649,7 +4649,7 @@
 Irei a todos esses lugares da história assim que puder, para ajudá-la a recuperar seu poder.</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H88" s="0" t="inlineStr">
         <is>
           <t>ඞНе волнуйся, Сотот.
 Чтобы помочь тебе восстановить силы, я исправлю все эти точки пространства-времени.</t>
@@ -4705,7 +4705,7 @@
 Afogomorn ocupa esta área sem cerimônia, com uma estranha alça com botões em ambas as mãos e uma estranha bagunça de objetos espalhados.</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H89" s="0" t="inlineStr">
         <is>
           <t>Вы замечаете что-то, что не вписывается в это место в правой части библиотеки --
 Огромный разукрашенный железный ящик с мерцающим стеклом…
@@ -4749,7 +4749,7 @@
           <t>Sothoth, o que há de errado com ela!?</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H90" s="0" t="inlineStr">
         <is>
           <t>Сотот, что с Ним не так?!</t>
         </is>
@@ -4793,7 +4793,7 @@
           <t>Raramente você vê Sothoth com uma expressão de resignação enquanto ela coloca a mão entre as sobrancelhas.</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H91" s="0" t="inlineStr">
         <is>
           <t>Редко можно увидеть столь смиренное лицо Сотот, когда она прикладывает руку к бровям.</t>
         </is>
@@ -4860,7 +4860,7 @@
 Ela não interfere mais no espaço e no tempo, e eu também não posso interferir na liberdade dela.</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H92" s="0" t="inlineStr">
         <is>
           <t>После того как я полностью пробудилось наше общее "Я" уснуло.
 Афоргомон никогда не желал сливаться со мной.
@@ -4906,7 +4906,7 @@
           <t>.Mas isso não vai causar mais problemas?</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H93" s="0" t="inlineStr">
         <is>
           <t>...Но разве это не вызовет еще больше проблем?</t>
         </is>
@@ -4967,7 +4967,7 @@
 Mas certamente preservarão o Novo Mundo que criamos.</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H94" s="0" t="inlineStr">
         <is>
           <t>В конце концов Афоргомон является ключом к стиранию хаотических временных линий.
 Он видел слишком много разрушений, что повлияло на характер.
@@ -5012,7 +5012,7 @@
           <t>Okay.</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H95" s="0" t="inlineStr">
         <is>
           <t>Лааадно…</t>
         </is>
@@ -5054,7 +5054,7 @@
           <t>Sothoth, have you found anything?</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H96" s="0" t="inlineStr">
         <is>
           <t>ඞСотот, ты что-нибудь нашел?</t>
         </is>
@@ -5108,7 +5108,7 @@
 Although there are some causes and consequeces, some of them are against the rules.</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H97" s="0" t="inlineStr">
         <is>
           <t>ඞДевочке по имени Ноэль не суждено было сложиться такой судьбой. 
 История, представленная на этой странице, кажется, изящно переплетена с другими историями. 
@@ -5167,7 +5167,7 @@
 </t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H98" s="0" t="inlineStr">
         <is>
           <t>ඞЯ чувствую себя немного неуютно… 
 Хотя я восстановил пространство и время.
@@ -5229,7 +5229,7 @@
 As long as you don't forget this place, it won't affect at all.</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H99" s="0" t="inlineStr">
         <is>
           <t>ඞНе волнуйся, мы существуем только потому, что прошлого не изменишь.
 Ребенок был прав…
@@ -5274,7 +5274,7 @@
           <t>Then why did they do this?</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H100" s="0" t="inlineStr">
         <is>
           <t>ඞТогда зачем они это сделали?</t>
         </is>
@@ -5318,7 +5318,7 @@
 </t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H101" s="0" t="inlineStr">
         <is>
           <t>ඞСотот качает головой.</t>
         </is>
@@ -5396,7 +5396,7 @@
 This would be your biggest obstacle.</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H102" s="0" t="inlineStr">
         <is>
           <t>ඞВ чем они действительно хороши, так это в изменении идентичности других людей и превращении их в самих себя.
 Они - это они, тысячи и тысячи взаимосвязанных и противоречивых личностей.
@@ -5446,7 +5446,7 @@
 </t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" s="0" t="inlineStr">
         <is>
           <t>ඞПонятно, я буду более осторожен.</t>
         </is>
@@ -5506,7 +5506,7 @@
 But don't expect me to fix it!</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H104" s="0" t="inlineStr">
         <is>
           <t>ඞХа, ты не умеешь драться, но тебе все равно приходится создавать проблемы.
 Вот так тебя избили, и ты просишь меня положить этому конец. Какой ты способный!
@@ -5563,7 +5563,7 @@
 Thank you so much this time.</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H105" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж, позвольте мне продолжить.
 Если бы Звездный Ключ был разрушен силой Тиндалоса, я определенно не смог бы восстановить его снова.
@@ -5607,7 +5607,7 @@
           <t>Huh, it's good that you know it!</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H106" s="0" t="inlineStr">
         <is>
           <t>ඞХа, хорошо, что ты это знаешь!</t>
         </is>
@@ -5651,7 +5651,7 @@
 </t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H107" s="0" t="inlineStr">
         <is>
           <t>ඞАфоргомон бросает вас к Сотота, а затем возвращается на свое место, чтобы продолжить игру.</t>
         </is>
@@ -5699,7 +5699,7 @@
 Sothoth says to you after he saw that you have regained some consciousness.</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="H108" s="0" t="inlineStr">
         <is>
           <t>ඞТы просыпаешься, но когда видишь встревоженный взгляд Сотота, ты проглатываешь свои слова.
 Сотот говорит тебе, увидев, что ты немного пришел в себя.</t>
@@ -5779,7 +5779,7 @@
 Everything would be irreversible…</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H109" s="0" t="inlineStr">
         <is>
           <t>ඞТиндалосы нападали на любого, кто путешествовал по нему, чтобы любой ценой контролировать пространство-время.
 После того, как они убивали путешественника, они поглощали обломки пространства-времени. 
@@ -5829,7 +5829,7 @@
 </t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H110" s="0" t="inlineStr">
         <is>
           <t>ඞИзвините, я поступил неправильно.</t>
         </is>
@@ -5883,7 +5883,7 @@
 Now, have a good rest.</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H111" s="0" t="inlineStr">
         <is>
           <t>ඞПутешествие в хаотичном пространстве-времени будет сопряжено с большой опасностью.
 Я знал это с самого начала…
@@ -5930,7 +5930,7 @@
 | After a long time, the library is restart, and your body has recovered as before.</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="H112" s="0" t="inlineStr">
         <is>
           <t>ඞВнезапно свет в библиотеке гаснет, и все книги перестают переворачиваться.
 | Спустя долгое время библиотека перезапускается, и ваше тело восстанавливается, как и раньше.</t>
@@ -5981,7 +5981,7 @@
 </t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H113" s="0" t="inlineStr">
         <is>
           <t>ඞТы что, тупой?!Если тебе есть что сказать, просто скажи это!
 Если это просто бесполезная благодарность, можешь идти на хуй.</t>
@@ -6024,7 +6024,7 @@
           <t>Afogomorn, I want you to help me!</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H114" s="0" t="inlineStr">
         <is>
           <t>ඞПрости, я хочу, чтобы ты помог мне!</t>
         </is>
@@ -6066,7 +6066,7 @@
           <t>Funny, why should I help you?</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H115" s="0" t="inlineStr">
         <is>
           <t>ඞЗабавно, но почему я должен тебе помогать?</t>
         </is>
@@ -6116,7 +6116,7 @@
 </t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="H116" s="0" t="inlineStr">
         <is>
           <t>ඞПотому что я понял одну вещь.
 То, что ты делал раньше, разумно.</t>
@@ -6159,7 +6159,7 @@
           <t>Oh? You mean, you agree with my idea?</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H117" s="0" t="inlineStr">
         <is>
           <t>ඞ«о? Вы хотите сказать, что согласны с моей идеей?</t>
         </is>
@@ -6217,7 +6217,7 @@
 We cannot get rid of that consumption, in the end, everything will fall into the void.</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="H118" s="0" t="inlineStr">
         <is>
           <t>ඞУ нас есть возможность устранить хаос в пространстве-времени. 
 Однако ресурсы, необходимые для этого, требуют определенных затрат.
@@ -6268,7 +6268,7 @@
 You finally realize your works are useless.</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="H119" s="0" t="inlineStr">
         <is>
           <t>ඞКонечно, это интересно.
 Вы, наконец, понимаете, что ваши работы бесполезны.</t>
@@ -6347,7 +6347,7 @@
 To break the prison!</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H120" s="0" t="inlineStr">
         <is>
           <t>ඞЭто верно, мы подобны заключенным в тюрьме, ожидающим уничтожения.
 Те, у кого нет вечной жизни, просто не могут ощутить существование тюрьмы.
@@ -6400,7 +6400,7 @@
 Hahahahahahahahaha.</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H121" s="0" t="inlineStr">
         <is>
           <t>ඞАхахахахахаха.
 Хахахахахахахаха.</t>
@@ -6449,7 +6449,7 @@
 After a long time, you heard a sigh.</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="H122" s="0" t="inlineStr">
         <is>
           <t>ඞКазалось, они услышали самую смешную вещь, которую когда-либо слышали, и не могли удержаться от смеха.
 Спустя долгое время вы услышали вздох.</t>
@@ -6498,7 +6498,7 @@
 And with the current power you have, why do you think you can help me?</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="H123" s="0" t="inlineStr">
         <is>
           <t>ඞДаже когда-то цельный я не смогу вырваться из этой клетки.
 И с той силой, которой ты обладаешь сейчас, почему ты думаешь, что сможешь мне помочь?</t>
@@ -6559,7 +6559,7 @@
 At that time, we will create a new world.</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H124" s="0" t="inlineStr">
         <is>
           <t>ඞДействительно, в настоящее время я не могу вам помочь.
 Но теперь я нашел свой путь и то, что мне нужно сделать, я постараюсь достичь этой цели.
@@ -6613,7 +6613,7 @@
 I will help you.</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="H125" s="0" t="inlineStr">
         <is>
           <t>ඞЛадно, ладно, я понял.
 Если ты столкнешься с серьезными врагами во время путешествия во времени, я помогу тебе.</t>
@@ -6672,7 +6672,7 @@
 And Tindalos will hunt for it.</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="H126" s="0" t="inlineStr">
         <is>
           <t>ඞТиндалос заблокировал ваше местоположение.
 Это должно быть вызвано вашим первоначальным наблюдением за этим камнем.
@@ -6723,7 +6723,7 @@
 And the end was doomed from the beginning.</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="H127" s="0" t="inlineStr">
         <is>
           <t>ඞКартер всегда верил, что сможет сбежать с помощью камня.
 И конец был предопределен с самого начала.</t>
@@ -6784,7 +6784,7 @@
 At the same time, it will also be helpful for your space travel.</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="H128" s="0" t="inlineStr">
         <is>
           <t>ඞЭтот камень может помочь мне восстановить часть моей силы.
 Я поглощу его и создам проекцию для тебя, чтобы ослабить его действие.
@@ -6848,7 +6848,7 @@
 Is there any way for me to meet them before a certain event?</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="H129" s="0" t="inlineStr">
         <is>
           <t>ඞБолее того, Сотот...
 После того, как я переписал историю, я обнаружил несколько выдающихся личностей.
@@ -6909,7 +6909,7 @@
 You can use my power to create such a possibility.</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="H130" s="0" t="inlineStr">
         <is>
           <t>ඞЯ понимаю твое желание, Звездный Ключ.
 Однако я не могу напрямую защитить их без четкой связи.
@@ -6954,7 +6954,7 @@
           <t>Thank you, Sothoth!</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H131" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо тебе, Сотот!</t>
         </is>
@@ -6998,7 +6998,7 @@
 </t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H132" s="0" t="inlineStr">
         <is>
           <t>ඞФункция создания первоначальной команды компаньонов недоступна в текущей версии, приносим извинения за доставленные неудобства.</t>
         </is>
@@ -7046,7 +7046,7 @@
 But now it seems that you are completely used to space travel.</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H133" s="0" t="inlineStr">
         <is>
           <t>ඞСтар Ки, я немного волновался.
 Но теперь, похоже, ты полностью привык к космическим путешествиям.</t>
@@ -7098,7 +7098,7 @@
 it's time travel, too?</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H134" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не знаю, в этом все еще много путаницы.
 Сотот, ты думаешь, что этот разговор, который я веду с тобой
@@ -7148,7 +7148,7 @@
 What do you think?</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="H135" s="0" t="inlineStr">
         <is>
           <t>ඞЯ не могу выйти за рамки возможного, чтобы ответить на этот вопрос.
 Что вы думаете?</t>
@@ -7209,7 +7209,7 @@
 It would be much better, but…</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H136" s="0" t="inlineStr">
         <is>
           <t>ඞУ меня тоже нет ответа.
 Но я знаю, просто отнесись к этому серьезно.
@@ -7259,7 +7259,7 @@
           <t>……</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H137" s="0" t="inlineStr">
         <is>
           <t>ඞТем не менее, вы все еще можете чувствовать, что путь впереди темен и неопределенен.
 Вы не знаете, куда он ведет, и боитесь шагнуть в пропасть?</t>
@@ -7302,7 +7302,7 @@
           <t>Here is the thing…</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="H138" s="0" t="inlineStr">
         <is>
           <t>ඞВот в чем дело…</t>
         </is>
@@ -7344,7 +7344,7 @@
           <t>Star Key, do you know what is "The Self" ?</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="H139" s="0" t="inlineStr">
         <is>
           <t>ඞСтар Ки, знаешь ли ты, что такое "Я"?</t>
         </is>
@@ -7388,7 +7388,7 @@
 Carl.</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H140" s="0" t="inlineStr">
         <is>
           <t>ඞОднажды я получил известие от мистера Карла.</t>
         </is>
@@ -7455,7 +7455,7 @@
 Although I gave up something but also closer to "The Self", this is the result of my choice.</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H141" s="0" t="inlineStr">
         <is>
           <t>ඞСтремление к "я" - это процесс самоотречения. 
 Поскольку я больше не обладаю "всеведением", я больше не могу ясно видеть будущее. 
@@ -7502,7 +7502,7 @@
           <t>This what I can feel, you are completely different from them…</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="H142" s="0" t="inlineStr">
         <is>
           <t>ඞЭто то, что я чувствую, ты совершенно отличаешься от них…</t>
         </is>
@@ -7544,7 +7544,7 @@
           <t>I know, no matter the result, the most important thing is your choice…</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="H143" s="0" t="inlineStr">
         <is>
           <t>ඞЯ знаю, что независимо от результата, самое главное - это ваш выбор…</t>
         </is>
@@ -7597,7 +7597,7 @@
 If we can prevent disaster from happening, so why do we need to create a new world?</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="H144" s="0" t="inlineStr">
         <is>
           <t>ඞСотот, действительно ли я могу изменить историю, чтобы избежать трагедии?
 Если мы можем предотвратить катастрофу, то зачем нам создавать новый мир?</t>
@@ -7646,7 +7646,7 @@
 After pondering for a while, Sothoth tells you,</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="H145" s="0" t="inlineStr">
         <is>
           <t>ඞСотот чувствует ваши подавленные эмоции.
 Немного поразмыслив, Сотот говорит вам,</t>
@@ -7724,7 +7724,7 @@
 Nothing will change essentially…</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H146" s="0" t="inlineStr">
         <is>
           <t>ඞПотому что нам нужны "ПЕРЕМЕНЫ".
 Наша цель - не избежать конца пространства и времени.
@@ -7780,7 +7780,7 @@
 </t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H147" s="0" t="inlineStr">
         <is>
           <t>ඞЧто означает это "ИЗМЕНЕНИЕ"?
 И теперь даже я не могу сказать вам, правильно ли то, что я делал в те времена, или нет.</t>
@@ -7859,7 +7859,7 @@
 You are looking for the meaning when you are confused, this is the meaning of Change.</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H148" s="0" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ… вам нужно сделать только одно.
 Соедините настоящее и будущее этих драгоценных вещей.
@@ -7907,7 +7907,7 @@
           <t>Where is the Afogomorn?</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="H149" s="0" t="inlineStr">
         <is>
           <t>ඞГде же этот Прощелыга?</t>
         </is>
@@ -7949,7 +7949,7 @@
           <t>Wait for Sothoth to come back…</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H150" s="0" t="inlineStr">
         <is>
           <t>ඞЖдать возвращения Сотота…</t>
         </is>
@@ -7993,7 +7993,7 @@
 </t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H151" s="0" t="inlineStr">
         <is>
           <t>ඞТы смотрел на небо и ждал… | Пока на куполе не засияли звезды… | Затем ты увидел, как Сотот и Афоргомон возвращаются в храм.</t>
         </is>
@@ -8035,7 +8035,7 @@
           <t>Tawil, this is what you came up with!</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H152" s="0" t="inlineStr">
         <is>
           <t>ඞТавил, вот что ты придумал!</t>
         </is>
@@ -8089,7 +8089,7 @@
 And if we continue to fight, we will only cause unnecessary losses to each other.</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="H153" s="0" t="inlineStr">
         <is>
           <t>ඞДа, этот план хорош для нас обоих.
 Ты набираешься сил и сражаешься вместе со мной.
@@ -8139,7 +8139,7 @@
 </t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H154" s="0" t="inlineStr">
         <is>
           <t>ඞИнтересный. То есть, вы хотите сказать, что я стираю остатки сознания основного тела. 
 И вы передадите власть мне, и я буду управлять этой библиотекой.</t>
@@ -8194,7 +8194,7 @@
 So as long as you participate, you will surely gain something.</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="H155" s="0" t="inlineStr">
         <is>
           <t>ඞБолее того, я не буду соревноваться с вами в силе нашего тела.
 Даже если вы потерпите неудачу, я буду выплачивать вам пространственно-временные очки.
@@ -8238,7 +8238,7 @@
           <t>Interesting, what are the conditions?</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="H156" s="0" t="inlineStr">
         <is>
           <t>ඞИнтересно, какие это условия?</t>
         </is>
@@ -8286,7 +8286,7 @@
 And in the recovery process, the ability of the Star Key will play a key role in helping.</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="H157" s="0" t="inlineStr">
         <is>
           <t>ඞЯ надеюсь, что вы со Звездным Ключом будете работать сообща.
 В процессе восстановления способность Звездного ключа будет играть ключевую роль.</t>
@@ -8335,7 +8335,7 @@
 Anyway, idle is idle, I accept this bet!</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="H158" s="0" t="inlineStr">
         <is>
           <t>ඞКакая неприятность!
 В любом случае, холостой ход есть холостой ход, я принимаю это пари!</t>
@@ -8378,7 +8378,7 @@
           <t>O módulo de combate não está disponível nesta versão no momento. Por favor, aceite as nossas desculpas.</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="H159" s="0" t="inlineStr">
         <is>
           <t>ඞБоевой модуль в настоящее время недоступен в этой версии, пожалуйста, примите наши извинения.</t>
         </is>
@@ -8420,7 +8420,7 @@
           <t>View</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="H160" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотреть</t>
         </is>
@@ -8468,7 +8468,7 @@
 Let's go on a journey after they come back.</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="H161" s="0" t="inlineStr">
         <is>
           <t>ඞТак что дай мне немного отдохнуть.
 Давай отправимся в путешествие, когда они вернутся.</t>
@@ -8517,7 +8517,7 @@
 Tawil, você gosta de fazer essas coisas desnecessárias.</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="H162" s="0" t="inlineStr">
         <is>
           <t>Как же они глаза мозолят.
 Нравится же тебе мастерить всякую чепуху, Тавил.</t>
@@ -8566,7 +8566,7 @@
 Você não acha lindo?</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="H163" s="0" t="inlineStr">
         <is>
           <t>Все это - моя драгоценная собственность.
 Разве тебе не кажется, что они прекрасны?</t>
@@ -8612,7 +8612,7 @@
 O que há de tão precioso.</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="H164" s="0" t="inlineStr">
         <is>
           <t>Всего лишь блестящая пыльца.
 Что же в ней такого ценного?</t>
@@ -8673,7 +8673,7 @@
 E porque elas têm nomes.</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H165" s="0" t="inlineStr">
         <is>
           <t>Они помогают мне взаимодействовать с миром.
 Каждый сегмент сознания создан уникальной душой.
@@ -8733,7 +8733,7 @@
 Você deve saber que estamos separadas porque não conseguimos chegar a um acordo!</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="H166" s="0" t="inlineStr">
         <is>
           <t>Остановись!
 Хватит! Хватит! Хватит!
@@ -8784,7 +8784,7 @@
 Afogomorn, você se lembra do que aconteceu antes?</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="H167" s="0" t="inlineStr">
         <is>
           <t>Совершенно не могу вспомнить, какой я была до того как мы разделились.
 Афоргомон, ты помнишь что было раньше?</t>
@@ -8842,7 +8842,7 @@
 De qualquer forma, é bom não interferirmos uma com a outra agora.</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="H168" s="0" t="inlineStr">
         <is>
           <t>…
 Тебе не понравится об этом вспоминать!
@@ -8891,7 +8891,7 @@
           <t>Sothoth, did something go wrong with this trip? I can't successfully go to the target time and space now</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="H169" s="0" t="inlineStr">
         <is>
           <t>ඞСотот, что-то пошло не так с этим путешествием?
 Я не могу успешно добраться до нужного времени и пространства.</t>
@@ -8961,7 +8961,7 @@
 We must borrow Afogomorn's power</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="H170" s="0" t="inlineStr">
         <is>
           <t>ඞДа… Потому что это пространство-время немного особенное.
 На него влияет мое остаточное сознание.
@@ -9008,7 +9008,7 @@
           <t>But… Their power often only causes more serious disasters</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="H171" s="0" t="inlineStr">
         <is>
           <t>ඞНо… Их мощь часто приводит только к более серьезным катастрофам.</t>
         </is>
@@ -9059,7 +9059,7 @@
 At the same time, I will always pay attention to them here</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="H172" s="0" t="inlineStr">
         <is>
           <t>ඞНет, теперь они одержимы идеей отомстить мне.
 Их не заботят другие вещи.
@@ -9106,7 +9106,7 @@
           <t>Hmm… is there anything else to watch out for?</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="H173" s="0" t="inlineStr">
         <is>
           <t>ඞХм... есть еще что-нибудь, на что следует обратить внимание?</t>
         </is>
@@ -9175,7 +9175,7 @@
 I have made an agreement with Afogomorn that they will assist you at critical moments</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="H174" s="0" t="inlineStr">
         <is>
           <t>ඞЭто путешествие совершенно особенное. 
 Поэтому, чтобы помочь вам, я наделю вас большей силой.
@@ -9228,7 +9228,7 @@
 I'm off to discuss with Afogomorn how to work together effectively</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="H175" s="0" t="inlineStr">
         <is>
           <t>ඞПонимать……
 Я ухожу, чтобы обсудить с Афоргомон, как эффективно работать вместе</t>
@@ -9289,7 +9289,7 @@
 So you need to cooperate I complete a test</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="H176" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж, я вижу, что вы немного колеблетесь.
 Это выражение сомнения и недоверия.
@@ -9335,7 +9335,7 @@
           <t>How do I cooperate?</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="H177" s="0" t="inlineStr">
         <is>
           <t>ඞКак я могу сотрудничать?</t>
         </is>
@@ -9377,7 +9377,7 @@
           <t>Just when you questioned, the snake in front of them opened its huge mouth, and a small part of your body's strength was taken away</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="H178" s="0" t="inlineStr">
         <is>
           <t>ඞКак раз в тот момент, когда вы задавали вопросы, змея перед ними открыла свою огромную пасть, и небольшая часть силы вашего тела была отнята.</t>
         </is>
@@ -9438,7 +9438,7 @@
 You need a little innovation The change</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="H179" s="0" t="inlineStr">
         <is>
           <t>ඞНе волнуйтесь.
 Хотя я вас ненавижу, я не стану нарушать правила пари, что Сотот слишком консервативен.
@@ -9483,7 +9483,7 @@
           <t>Then, you saw him pull out a blazing light from the giant snake's mouth and throw it into your body</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="H180" s="0" t="inlineStr">
         <is>
           <t>ඞЗатем вы увидели, как он вытащил пылающий свет из пасти гигантской змеи и бросил его в ваше тело.</t>
         </is>
@@ -9551,7 +9551,7 @@
 Then you will experience it slowly</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="H181" s="0" t="inlineStr">
         <is>
           <t>ඞСпособность преодолевать все препятствия позволяет вам попасть куда угодно.
 Это действительно завидная способность.
@@ -9598,7 +9598,7 @@
           <t>At the desk in the library, you told Sothoth about your travel experience | They listened patiently, and there was a red ring on the desk</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="H182" s="0" t="inlineStr">
         <is>
           <t>ඞЗа столом в библиотеке вы рассказали Сототу о своем путешествии. | Они терпеливо выслушали вас, и на столе появилось красное кольцо.</t>
         </is>
@@ -9667,7 +9667,7 @@
 Giving birth to a new consciousness</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="H183" s="0" t="inlineStr">
         <is>
           <t>ඞЭтот фрагмент обладает способностью изменять информацию, хранящуюся в памяти человека.
 Восстанавливая память и пробуждая инстинкт…
@@ -9714,7 +9714,7 @@
           <t>A light blue light condensed in Sothoth' hands, but the light soon faded away</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="H184" s="0" t="inlineStr">
         <is>
           <t>ඞВ руках Сотота сгустился светло-голубой свет, но вскоре он погас.</t>
         </is>
@@ -9766,7 +9766,7 @@
 </t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H185" s="0" t="inlineStr">
         <is>
           <t>ඞК сожалению, это сознание решило разрушить "я", чтобы остановить распространение беспорядочной энергии.
 Даже если я восстановлю ее тело, ее "я" не восстановится.</t>
@@ -9809,7 +9809,7 @@
           <t>Sothoth sighed deeply</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="H186" s="0" t="inlineStr">
         <is>
           <t>ඞСотот глубоко вздохнул</t>
         </is>
@@ -9859,7 +9859,7 @@
 </t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="H187" s="0" t="inlineStr">
         <is>
           <t>ඞЭто выбор, сделанный Джойей.
 На ее месте я бы тоже принял такое решение.</t>
@@ -9919,7 +9919,7 @@
 Not to separate</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="H188" s="0" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, никто не хочет повторять одни и те же ошибки.
 Вы должны соблюдать наше соглашение.
@@ -9964,7 +9964,7 @@
           <t>I know, Sothoth…</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
+      <c r="H189" s="0" t="inlineStr">
         <is>
           <t>ඞЯ знаю, Сотот…</t>
         </is>
@@ -10006,7 +10006,7 @@
           <t>At the desk in the library, you told Sothoth about the experience of this trip</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
+      <c r="H190" s="0" t="inlineStr">
         <is>
           <t>ඞЗа столом в библиотеке вы рассказали Сототу о впечатлениях от этой поездки</t>
         </is>
@@ -10091,7 +10091,7 @@
 And they will demons come true</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="H191" s="0" t="inlineStr">
         <is>
           <t>ඞИбом - одно из немногих существ, которые не будут активно вмешиваться в пространство-время
 Он очень любит прятаться в темноте и наблюдать за всем в мире.
@@ -10140,7 +10140,7 @@
           <t>What is the relationship between the Scottners in the tower and Ibom?</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="H192" s="0" t="inlineStr">
         <is>
           <t>ඞКакова связь между Sgetnas в башне и Ibom?</t>
         </is>
@@ -10215,7 +10215,7 @@
 But this is the way the Sgetnas think they can avoid the punishment of the gods</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
+      <c r="H193" s="0" t="inlineStr">
         <is>
           <t>ඞПо сути, сгетна - это дети Ибома.
 Для Ибома цивилизация, созданная сгетнами, является вырождением.
@@ -10266,7 +10266,7 @@
           <t>Sothoth… Is this a good ending for them?</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="H194" s="0" t="inlineStr">
         <is>
           <t>ඞСотот… Для них это хороший конец?</t>
         </is>
@@ -10308,7 +10308,7 @@
           <t>Sothoth pondered for a while, then slowly replied</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
+      <c r="H195" s="0" t="inlineStr">
         <is>
           <t>ඞСотот некоторое время размышлял, затем медленно ответил</t>
         </is>
@@ -10374,7 +10374,7 @@
 But you must not sink into it Your mission is to keep writing these things forever</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
+      <c r="H196" s="0" t="inlineStr">
         <is>
           <t>ඞС моей точки зрения.
 Судьба человека похожа на паутину переплетенных циклов.
@@ -10421,7 +10421,7 @@
           <t>I know……</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
+      <c r="H197" s="0" t="inlineStr">
         <is>
           <t>ඞЯ знаю……</t>
         </is>
@@ -10463,7 +10463,7 @@
           <t>Sothoth seemed to sense your loss, and said softly</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="H198" s="0" t="inlineStr">
         <is>
           <t>ඞСотот, казалось, почувствовал твою потерю и тихо сказал:</t>
         </is>
@@ -10508,7 +10508,7 @@
 It won't be a bad ending</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="H199" s="0" t="inlineStr">
         <is>
           <t>ඞНо до тех пор, пока история не закончится нормально.
 Это не будет плохой концовкой.</t>
@@ -10557,7 +10557,7 @@
 In front of you is information about the location.</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="H200" s="0" t="inlineStr">
         <is>
           <t>ඞНа этот раз вы отправитесь в пространство-время 1877 года.
 Перед вами информация о местоположении.</t>
@@ -10600,7 +10600,7 @@
           <t>Background and Location</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="H201" s="0" t="inlineStr">
         <is>
           <t>ඞПредыстория и местоположение</t>
         </is>
@@ -10671,7 +10671,7 @@
 In just six years, the local economy has grown larger than before.</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="H202" s="0" t="inlineStr">
         <is>
           <t>ඞ&lt;color=#DC143C&gt;"Кливленд"&lt;/color&gt;
 Шесть лет назад в Кливленде произошел редкий пожар.
@@ -10738,7 +10738,7 @@
 He is widely praised for his personal culture and competence, but appears to have clashed with local businessmen.</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="H203" s="0" t="inlineStr">
         <is>
           <t>ඞ"Церковь Святой Миртл"
 Церковь, которую посещают местные жители.
@@ -10789,7 +10789,7 @@
 He will be your historical associated person.</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="H204" s="0" t="inlineStr">
         <is>
           <t>ඞЕсть человек, который может позволить вам принять участие в этом историческом событии.
 Он будет вашим историческим партнером.</t>
@@ -10832,7 +10832,7 @@
           <t>Sherman's commission</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="H205" s="0" t="inlineStr">
         <is>
           <t>ඞКомиссия Шермана</t>
         </is>
@@ -10886,7 +10886,7 @@
 Sherman has made a fortune in the construction business after the disaster. You know he has a very lovely daughter who is the apple of his eye, but it seems like she's been in bad shape lately...</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="H206" s="0" t="inlineStr">
         <is>
           <t>ඞБогатый торговец Шерман попросил дворецкого найти вас.
 Он хочет, чтобы вы немедленно отправились в Сент-Миртл, и у него есть для вас срочное поручение.
@@ -10960,7 +10960,7 @@
 You must merge with the identity of your associate to avoid personality dissolution.</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
+      <c r="H207" s="0" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, моя сила защитит тебя от настоящей смерти. 
 Но ты все равно испытаешь смертельную боль.
@@ -11007,7 +11007,7 @@
           <t>Ok, I got it</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="H208" s="0" t="inlineStr">
         <is>
           <t>ඞЛадно, я понял</t>
         </is>
@@ -11049,7 +11049,7 @@
           <t>Yog-Sothoth</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="H209" s="0" t="inlineStr">
         <is>
           <t>Йог-Сотот</t>
         </is>
@@ -11091,7 +11091,7 @@
           <t>Aforgomon</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
+      <c r="H210" s="0" t="inlineStr">
         <is>
           <t>Афоргомон</t>
         </is>
@@ -11133,7 +11133,7 @@
           <t>O Portão</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
+      <c r="H211" s="0" t="inlineStr">
         <is>
           <t>Врата</t>
         </is>
@@ -11175,7 +11175,7 @@
           <t>No module is selected, do you want to go to select?</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
+      <c r="H212" s="0" t="inlineStr">
         <is>
           <t>ඞНи один модуль не выбран, вы хотите перейти к выбору?</t>
         </is>
@@ -11217,7 +11217,7 @@
           <t>Confirmar</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
+      <c r="H213" s="0" t="inlineStr">
         <is>
           <t>ඞПодтверждать</t>
         </is>
@@ -11259,7 +11259,7 @@
           <t>Cancelar</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="H214" s="0" t="inlineStr">
         <is>
           <t>ඞОтмена</t>
         </is>
@@ -11301,7 +11301,7 @@
           <t>Começar Viajem no Tempo!</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="H215" s="0" t="inlineStr">
         <is>
           <t>Начать путешествие в пространстве-времени!</t>
         </is>
@@ -11343,7 +11343,7 @@
           <t>View black line</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="H216" s="0" t="inlineStr">
         <is>
           <t>ඞПросмотр черной линии</t>
         </is>
@@ -11391,7 +11391,7 @@
 They are timelines that cannot be integrated into the correct history</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H217" s="0" t="inlineStr">
         <is>
           <t>ඞБольшое количество черных линий, которые продолжают ползти снизу вверх.
 Это временные линии, которые невозможно интегрировать в правильную историю</t>
@@ -11439,7 +11439,7 @@
 Be sure to let these wrong timelines right and fit into the new era</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H218" s="0" t="inlineStr">
         <is>
           <t>ඞ…
 Убедитесь, что эти неправильные временные рамки исправлены и вписываются в новую эру.</t>
@@ -11488,7 +11488,7 @@
 Sothoth is desperately gathering their power into your body, to prevent your body from dissipating.</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="H219" s="0" t="inlineStr">
         <is>
           <t>ඞЧасть вашего тела была поглощена реальностью, а другая часть не смогла объединиться из-за чрезмерного использования силы.
 Сототы отчаянно собирают свою силу в вашем теле, чтобы не дать вашему телу рассеяться.</t>
@@ -11537,7 +11537,7 @@
 I make you… consume your power again…</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="H220" s="0" t="inlineStr">
         <is>
           <t>ඞИзвините… Сотот.
 Я заставляю тебя...… используй свою силу снова…</t>
@@ -11592,7 +11592,7 @@
 But I know what you have done is not limited to emotional actions.</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="H221" s="0" t="inlineStr">
         <is>
           <t>ඞСтар Ки, ты можешь сказать мне, почему ты это сделала?
 Возможно, я не способен общаться с людьми и испытывать сильные эмоции, как ты.
@@ -11660,7 +11660,7 @@
 I know this is the reason.</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="H222" s="0" t="inlineStr">
         <is>
           <t>ඞЧто ж… На это есть две основные причины.
 Одна из них - будущее, которое я однажды видел.
@@ -11706,7 +11706,7 @@
           <t>Then what's the second reason?</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="H223" s="0" t="inlineStr">
         <is>
           <t>ඞТогда в чем же вторая причина?</t>
         </is>
@@ -11772,7 +11772,7 @@
 Maybe this is my weakness…</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="H224" s="0" t="inlineStr">
         <is>
           <t>ඞЗа обещание…
 Хотя я и не они, но они - это я.
@@ -11830,7 +11830,7 @@
 Your emotion is not a defect, it's just something that makes you different from us.</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
+      <c r="H225" s="0" t="inlineStr">
         <is>
           <t>ඞСтар Ки, ты - воплощение моей воли.
 Все, что ты сделала, это попрала мою волю.
@@ -11874,7 +11874,7 @@
           <t>Thank you, Sothoth…</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="H226" s="0" t="inlineStr">
         <is>
           <t>ඞСпасибо тебе, Сотот…</t>
         </is>
@@ -11918,7 +11918,7 @@
           <t>Sothoth used his power to restore your shattered body to perfection</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="H227" s="0" t="inlineStr">
         <is>
           <t>ඞСотот использовал свою силу, чтобы довести твое разбитое тело до совершенства</t>
         </is>
@@ -11973,7 +11973,7 @@
 Não poderia ser apenas para ridicularizar o passado e acrescentar mais dificuldades para as gerações posteriores da história.</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
+      <c r="H228" s="0" t="inlineStr">
         <is>
           <t>ඞКакой ужасный опыт, мое восприятие изменилось неосознанно…
 Кризис пространства и времени был, наконец, разрешен Ими… С какой стати…
@@ -12023,7 +12023,7 @@
 A consciência de Sothoth passou por uma separação, isso também poderia estar relacionado a Ela...</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="H229" s="0" t="inlineStr">
         <is>
           <t>ඞВ каком количестве пространства и времени в пределах этой беспорядочной временной линии они заронили семена хаоса…
 Разделение сознания Сотота, может ли это быть как-то связано с Ними…</t>
@@ -12066,7 +12066,7 @@
           <t>Preciso descobrir a verdade!</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H230" s="0" t="inlineStr">
         <is>
           <t>ඞЯ должен узнать правду!</t>
         </is>
@@ -12108,7 +12108,7 @@
           <t>Voltar Para o Espaço-Tempo</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="H231" s="0" t="inlineStr">
         <is>
           <t>ඞВернемся к пространству-времени</t>
         </is>
@@ -12150,7 +12150,7 @@
           <t>Desistir da viagem</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
+      <c r="H232" s="0" t="inlineStr">
         <is>
           <t>ඞОткажись от поездки</t>
         </is>
@@ -12192,7 +12192,7 @@
           <t>Seleção de módulo</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
+      <c r="H233" s="0" t="inlineStr">
         <is>
           <t>ඞВыбор модуля</t>
         </is>
@@ -12234,7 +12234,7 @@
           <t>Entrar no Tutorial</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
+      <c r="H234" s="0" t="inlineStr">
         <is>
           <t>ඞПросмотреть обучение</t>
         </is>
@@ -12272,7 +12272,7 @@
           <t>众创房间</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
+      <c r="H235" s="0" t="inlineStr">
         <is>
           <t>ඞОсвободить место</t>
         </is>
@@ -12314,7 +12314,7 @@
           <t>Choose a Companion</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
+      <c r="H236" s="0" t="inlineStr">
         <is>
           <t>ඞВыбери себе компаньона</t>
         </is>
@@ -12356,7 +12356,7 @@
           <t>Módulos Personalizados</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="H237" s="0" t="inlineStr">
         <is>
           <t>ඞПользовательский модуль</t>
         </is>
@@ -12416,7 +12416,7 @@
 What a bad character…</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
+      <c r="H238" s="0" t="inlineStr">
         <is>
           <t>ඞДуши, которые Афоргомон поглотил раньше, все здесь.
 Они не собираются восстанавливать нарушенную временную линию.
@@ -12461,7 +12461,7 @@
           <t>The partner extraction function has not been opened yet</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
+      <c r="H239" s="0" t="inlineStr">
         <is>
           <t>ඞФункция поиска партнеров еще не была открыта.</t>
         </is>
@@ -12503,7 +12503,7 @@
           <t>View the gashapon machine</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
+      <c r="H240" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотрите на машину для приготовления гашапона</t>
         </is>
@@ -12545,7 +12545,7 @@
           <t>Conversar com Eles</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
+      <c r="H241" s="0" t="inlineStr">
         <is>
           <t>ඞПримирись с ними</t>
         </is>
@@ -12587,7 +12587,7 @@
           <t>Livros Obtidos</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H242" s="0" t="inlineStr">
         <is>
           <t>ඞПолученные книги</t>
         </is>
@@ -12629,7 +12629,7 @@
           <t>Module books obtained</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
+      <c r="H243" s="0" t="inlineStr">
         <is>
           <t>ඞПолучены модульные книги</t>
         </is>
@@ -12671,7 +12671,7 @@
           <t>O caminho para o Portão está aberto, vá e explore</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="H244" s="0" t="inlineStr">
         <is>
           <t>ඞДорога к воротам открыта, идите и исследуйте</t>
         </is>
@@ -12713,7 +12713,7 @@
           <t>Ir Agora</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
+      <c r="H245" s="0" t="inlineStr">
         <is>
           <t>ඞУходи сейчас же</t>
         </is>
@@ -12755,7 +12755,7 @@
           <t>Get ready again</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="H246" s="0" t="inlineStr">
         <is>
           <t>ඞБудьте готовы снова</t>
         </is>
@@ -12803,7 +12803,7 @@
 À sua frente há informações sobre o local.</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="H247" s="0" t="inlineStr">
         <is>
           <t>ඞНа этот раз вы отправитесь в пространство-время 1877 года
 Перед вами информация о пункте назначения</t>
@@ -12846,7 +12846,7 @@
           <t>Cidade de Cleveland</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="H248" s="0" t="inlineStr">
         <is>
           <t>ඞГород Кливленд</t>
         </is>
@@ -12894,7 +12894,7 @@
 You can try to get it during the trip</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="H249" s="0" t="inlineStr">
         <is>
           <t>ඞКроме того, я чувствую, что в этом месте есть предметы, которые влияют на направление истории
 Вы можете попробовать приобрести их во время поездки</t>
@@ -12937,7 +12937,7 @@
           <t>Saint Michael's Church</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="H250" s="0" t="inlineStr">
         <is>
           <t>ඞЦерковь Святого Михаила</t>
         </is>
@@ -12994,7 +12994,7 @@
 He has a very cute daughter, who is regarded as the jewel in his palm, but it seems that she has always been in bad health…</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="H251" s="0" t="inlineStr">
         <is>
           <t>ඞБогатый бизнесмен Шерман попросил своего дворецкого найти вас
 Надеюсь, вы немедленно отправитесь в "Церковь Святого Михаила", у вас есть очень срочная просьба, которую вам нужно решить
@@ -13069,7 +13069,7 @@
 Você deve se fundir com a identidade de seu associado para evitar a dissolução de personalidade.</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="H252" s="0" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, моя сила защитит тебя и позволит избежать настоящей смерти
 Но ты все равно испытаешь смертельную боль
@@ -13116,7 +13116,7 @@
           <t>Nenhum módulo está selecionado no momento. Ir?</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H253" s="0" t="inlineStr">
         <is>
           <t>ඞВ данный момент ни один из модулей не выбран, вы хотите перейти?</t>
         </is>
@@ -13158,7 +13158,7 @@
           <t>Flip through the books</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
+      <c r="H254" s="0" t="inlineStr">
         <is>
           <t>ඞПролистайте книги</t>
         </is>
@@ -13206,7 +13206,7 @@
 There are many books around the page</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
+      <c r="H255" s="0" t="inlineStr">
         <is>
           <t>ඞНа этой книжной полке вы найдете страницу со списком, заполненным различными названиями
 На странице много книг</t>
@@ -13249,7 +13249,7 @@
           <t>Emoções expressas na arte, que Sothoth adora</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
+      <c r="H256" s="0" t="inlineStr">
         <is>
           <t>ඞЭмоции, выраженные в искусстве, которым восхищается Сотот</t>
         </is>
@@ -13291,7 +13291,7 @@
           <t>Trocar Música</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
+      <c r="H257" s="0" t="inlineStr">
         <is>
           <t>Переключить музыку</t>
         </is>
@@ -13333,7 +13333,7 @@
           <t>You see food stuff you've never seen in it</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
+      <c r="H258" s="0" t="inlineStr">
         <is>
           <t>ඞВы видите в нем еду, которую никогда раньше не видели</t>
         </is>
@@ -13387,7 +13387,7 @@
 Sothoth doesn't like the library being cluttered</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
+      <c r="H259" s="0" t="inlineStr">
         <is>
           <t>ඞНаверное, это еда, которую Афоргомон принес из будущего
 Мне лучше прибраться здесь
@@ -13449,7 +13449,7 @@
 Really bad character!</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
+      <c r="H260" s="0" t="inlineStr">
         <is>
           <t>ඞДуши, которые Афрогомон поглотил раньше
 Они не восстановят нарушенную временную линию
@@ -13494,7 +13494,7 @@
           <t>Lookout</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
+      <c r="H261" s="0" t="inlineStr">
         <is>
           <t>ඞНаблюдение</t>
         </is>
@@ -13542,7 +13542,7 @@
 The galaxies surround this place, looking up, the entire universe is like a film covering the dome</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
+      <c r="H262" s="0" t="inlineStr">
         <is>
           <t>ඞСтена храма состоит из тысяч книг, каждая книга - это история в пространстве-времени
 Галактики окружают это место, если смотреть вверх, вся вселенная подобна пленке, покрывающей купол</t>
@@ -13585,7 +13585,7 @@
           <t>Clean up</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
+      <c r="H263" s="0" t="inlineStr">
         <is>
           <t>ඞУбирать</t>
         </is>
@@ -13633,7 +13633,7 @@
 Writing on the strips will directly affect the historical trend of the present world</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
+      <c r="H264" s="0" t="inlineStr">
         <is>
           <t>ඞИз-под лестницы торчит множество полосок белой бумаги
 Надписи на полосках непосредственно повлияют на историческую тенденцию современного мира</t>
@@ -13682,7 +13682,7 @@
 para lembrá-lo da regra de tempo mais importante</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
+      <c r="H265" s="0" t="inlineStr">
         <is>
           <t>ඞНа фоторамке нарисована голубая бабочка
 , которая напоминает вам о самом важном правиле времени</t>
@@ -13733,7 +13733,7 @@
 Mudanças não intencionais podem causar efeitos caóticos irreversíveis.</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
+      <c r="H266" s="0" t="inlineStr">
         <is>
           <t>ඞСледите за первоначальными изменениями</t>
         </is>
@@ -13775,7 +13775,7 @@
           <t>View Snack Bags</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
+      <c r="H267" s="0" t="inlineStr">
         <is>
           <t>ඞПросмотр пакетов с закусками</t>
         </is>
@@ -13823,7 +13823,7 @@
 Para lembrá-lo da regra de tempo mais importante-</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
+      <c r="H268" s="0" t="inlineStr">
         <is>
           <t>ඞНа фоторамке нарисована голубая бабочка
 Чтобы напомнить вам о самом важном правиле определения времени——</t>
@@ -13866,7 +13866,7 @@
           <t>Expressando emoções por meio da arte, Sothoth vai adorar isso</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
+      <c r="H269" s="0" t="inlineStr">
         <is>
           <t>ඞВыражая эмоции в искусстве, Сототу это понравится</t>
         </is>
@@ -13926,7 +13926,7 @@
 Oh, what a bad guy they are</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
+      <c r="H270" s="0" t="inlineStr">
         <is>
           <t>ඞДуши, которые Афоргомон поглотил раньше, все здесь
 Они не собираются восстанавливать нарушенную временную линию самостоятельно
@@ -13971,7 +13971,7 @@
           <t>View other book</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
+      <c r="H271" s="0" t="inlineStr">
         <is>
           <t>ඞПосмотреть другую книгу</t>
         </is>
@@ -14019,7 +14019,7 @@
 "When you decide on the book of space-time, I will open The Gate for you"</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
+      <c r="H272" s="0" t="inlineStr">
         <is>
           <t>ඞ"Библиотека подключена к Вратам, и, активировав Врата, вы сможете перейти в любое пространство-время"
 "Когда вы выберете книгу о пространстве-времени, я открою вам Врата".</t>
@@ -14068,7 +14068,7 @@
 I will answer any questions for you</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
+      <c r="H273" s="0" t="inlineStr">
         <is>
           <t>ඞКроме того, вы всегда можете обратиться ко мне, если возникнут какие-либо другие вопросы 
 Я отвечу на любые ваши вопросы</t>
@@ -14123,7 +14123,7 @@
 What's that?</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
+      <c r="H274" s="0" t="inlineStr">
         <is>
           <t>ඞЯ понимаю, Сотот… Но 
 … 
@@ -14173,7 +14173,7 @@
 They put their hand on their forehead</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
+      <c r="H275" s="0" t="inlineStr">
         <is>
           <t>ඞУ Сотота беспомощное выражение лица, которое редко можно увидеть
 Он прикладывает руку ко лбу</t>
@@ -14222,7 +14222,7 @@
 "You can be in here to create the connection person Later in the trip, you will get the same identity, experience with it"</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
+      <c r="H276" s="0" t="inlineStr">
         <is>
           <t>ඞ"Вам нужен разумный собеседник, чтобы вмешаться в историю, иначе вы не будете одиноки в этом мире" 
 "Вы можете присутствовать здесь, чтобы создать собеседника позже в ходе поездки, вы получите ту же идентичность, опыт общения с ним".</t>
@@ -14277,7 +14277,7 @@
 "Kind of existence" was unceremoniously take in there, his hands is playing a strange handle with button. There are strange and messy objects around</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
+      <c r="H277" s="0" t="inlineStr">
         <is>
           <t>ඞЕсли посмотреть в другую сторону, справа от библиотеки можно увидеть сцену, которая совершенно не соответствует этому месту.
 Огромный железный ящик мерцает и меняется в зависимости от освещения, а на многочисленных стеклянных пластинах рядом с ним постоянно появляются странные картинки 
@@ -14351,7 +14351,7 @@
 I no longer interfere with their freedom either</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
+      <c r="H278" s="0" t="inlineStr">
         <is>
           <t>ඞПосле того, как я проснулся, тело Афоргомона погрузилось в глубокий сон
 Но, несмотря на это, их сознание всегда неохотно сливается со мной
@@ -14422,7 +14422,7 @@
 To influence history, and then will bring the details of the "change" back here, those will become the power to fill space-time</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
+      <c r="H279" s="0" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, искривленные временные линии все еще существуют.
 Новые открытые пространства-времени все еще хрупки 
@@ -14468,7 +14468,7 @@
           <t>"These are the books related to space-times, you can read the information in the books to decide which space-time to go to"</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
+      <c r="H280" s="0" t="inlineStr">
         <is>
           <t>ඞ"Это книги, связанные с пространством-временем, вы можете прочитать информацию в книгах, чтобы решить, в какое пространство-время отправиться".</t>
         </is>
@@ -14510,7 +14510,7 @@
           <t>Hope they don't bother again</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
+      <c r="H281" s="0" t="inlineStr">
         <is>
           <t>ඞНадеюсь, они больше не побеспокоят</t>
         </is>
@@ -14552,7 +14552,7 @@
           <t>Are these all your things?</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
+      <c r="H282" s="0" t="inlineStr">
         <is>
           <t>ඞЭто все твои вещи?</t>
         </is>
@@ -14594,7 +14594,7 @@
           <t>Pular?</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
+      <c r="H283" s="0" t="inlineStr">
         <is>
           <t>ඞПропустить эпизод?</t>
         </is>
@@ -14636,7 +14636,7 @@
           <t>Pular?</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
+      <c r="H284" s="0" t="inlineStr">
         <is>
           <t>ඞПропустить эпизод?</t>
         </is>
@@ -14678,7 +14678,7 @@
           <t>Selecionar módulo</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
+      <c r="H285" s="0" t="inlineStr">
         <is>
           <t>ඞВыберите модуль</t>
         </is>
@@ -14720,7 +14720,7 @@
           <t>Criar papel</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
+      <c r="H286" s="0" t="inlineStr">
         <is>
           <t>ඞСоздать роль</t>
         </is>
@@ -14762,7 +14762,7 @@
           <t>Criar um módulo</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
+      <c r="H287" s="0" t="inlineStr">
         <is>
           <t>ඞСоздайте модуль</t>
         </is>
@@ -14804,7 +14804,7 @@
           <t>The record machine</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
+      <c r="H288" s="0" t="inlineStr">
         <is>
           <t>ඞЗаписывающая машина</t>
         </is>
@@ -14846,7 +14846,7 @@
           <t>Twisted egg machine</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
+      <c r="H289" s="0" t="inlineStr">
         <is>
           <t>ඞМашина для скручивания яиц</t>
         </is>
@@ -14888,7 +14888,7 @@
           <t>Lookout Point</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
+      <c r="H290" s="0" t="inlineStr">
         <is>
           <t>ඞНаблюдательный пункт</t>
         </is>
@@ -14930,7 +14930,7 @@
           <t>Falar com Afogomorn</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
+      <c r="H291" s="0" t="inlineStr">
         <is>
           <t>Поговори с Афоргомон</t>
         </is>
@@ -14972,7 +14972,7 @@
           <t>Selecionar módulo</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
+      <c r="H292" s="0" t="inlineStr">
         <is>
           <t>ඞВыберите модуль</t>
         </is>
@@ -15014,7 +15014,7 @@
           <t>Criar módulo</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
+      <c r="H293" s="0" t="inlineStr">
         <is>
           <t>ඞСоздать модуль</t>
         </is>
@@ -15056,7 +15056,7 @@
           <t>Ver a Lista</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
+      <c r="H294" s="0" t="inlineStr">
         <is>
           <t>ඞПросмотреть список</t>
         </is>
@@ -15098,7 +15098,7 @@
           <t>Ir Para O Portão</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
+      <c r="H295" s="0" t="inlineStr">
         <is>
           <t>ඞИдите к Воротам</t>
         </is>
@@ -15140,7 +15140,7 @@
           <t>Criar Investigador</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
+      <c r="H296" s="0" t="inlineStr">
         <is>
           <t>ඞСоздать исследователя</t>
         </is>
@@ -15182,7 +15182,7 @@
           <t>Interlúdio</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
+      <c r="H297" s="0" t="inlineStr">
         <is>
           <t>ඞИстория-интерлюдия</t>
         </is>
@@ -15224,7 +15224,7 @@
           <t>Falar com Sothoth</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
+      <c r="H298" s="0" t="inlineStr">
         <is>
           <t>ඞПоговори с Сототом</t>
         </is>
@@ -15266,7 +15266,7 @@
           <t>Module Settlement</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
+      <c r="H299" s="0" t="inlineStr">
         <is>
           <t>ඞРасчет модуля</t>
         </is>
@@ -15310,7 +15310,7 @@
 </t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
+      <c r="H300" s="0" t="inlineStr">
         <is>
           <t>ඞОна делает вид, что не слышит тебя, и смотрит на тебя жалкими глазами.</t>
         </is>
@@ -15354,7 +15354,7 @@
 </t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
+      <c r="H301" s="0" t="inlineStr">
         <is>
           <t>ඞДруг мой, если ты не хочешь, чтобы тебя выбросили в кювет, тебе лучше не сомневаться в цене, которую мы предложили.</t>
         </is>
@@ -15396,7 +15396,7 @@
           <t>Take a break… What should I do?</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
+      <c r="H302" s="0" t="inlineStr">
         <is>
           <t>ඞСделать перерыв… Что мне следует делать?</t>
         </is>
@@ -15438,7 +15438,7 @@
           <t>Waiting…</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
+      <c r="H303" s="0" t="inlineStr">
         <is>
           <t>ඞОжидание…</t>
         </is>
@@ -15480,7 +15480,7 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
+      <c r="H304" s="0" t="inlineStr">
         <is>
           <t>ඞХорошо</t>
         </is>
@@ -15525,7 +15525,7 @@
 | You stand up unsteadily.</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
+      <c r="H305" s="0" t="inlineStr">
         <is>
           <t>ඞСотот постепенно восстанавливает ваше утраченное тело.
 | Вы неуверенно встаете.</t>
@@ -15580,7 +15580,7 @@
 If all goes well, I'll be back soon.</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
+      <c r="H306" s="0" t="inlineStr">
         <is>
           <t>ඞЗвездный ключ, тебе не нужно торопиться в следующее путешествие во времени
 Мне нужно выбраться отсюда на некоторое время.
@@ -15630,7 +15630,7 @@
 So you don't ask too much.</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
+      <c r="H307" s="0" t="inlineStr">
         <is>
           <t>ඞСотот не говорит вам причину, и вы знаете, что есть какая-то причина, которую нужно скрывать.
 Поэтому вы не спрашиваете слишком многого.</t>
@@ -15675,7 +15675,7 @@
 </t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
+      <c r="H308" s="0" t="inlineStr">
         <is>
           <t>ඞОни вышли и скрылись за дверью.</t>
         </is>
